--- a/02_画面設計書・モックアップ/画面レイアウト.xlsx
+++ b/02_画面設計書・モックアップ/画面レイアウト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwasaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{08EFE0F0-96D7-41B3-BEFA-1712B9050B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D4CE46-7795-4F86-ACD7-0A7F14C7C5BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3877C5-B7E5-4824-AE78-FA7D8B801031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="784" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,24 +32,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="119">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -679,6 +666,13 @@
   <si>
     <t>システム設計</t>
   </si>
+  <si>
+    <t>掲示板FuJi</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1212,6 +1206,27 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,35 +1281,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1304,15 +1298,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1324,13 +1309,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1359,8 +1353,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8451,14 +8445,14 @@
   <dimension ref="A1:FL61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+      <selection activeCell="E8" sqref="E8:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="4.625" style="5" customWidth="1"/>
-    <col min="6" max="24" width="4.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="4.6328125" style="5" customWidth="1"/>
+    <col min="6" max="24" width="4.6328125" style="1" customWidth="1"/>
     <col min="25" max="28" width="4" style="1" customWidth="1"/>
     <col min="29" max="16384" width="13" style="1"/>
   </cols>
@@ -8676,16 +8670,16 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="81"/>
-      <c r="S3" s="79">
+      <c r="R3" s="88"/>
+      <c r="S3" s="86">
         <v>44830</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="81"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="88"/>
       <c r="W3" s="17"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -8780,14 +8774,14 @@
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
@@ -8805,66 +8799,66 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="84" t="s">
+      <c r="Q8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="81"/>
-      <c r="S8" s="84" t="s">
+      <c r="R8" s="88"/>
+      <c r="S8" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="81"/>
-      <c r="U8" s="84" t="s">
+      <c r="T8" s="88"/>
+      <c r="U8" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="81"/>
+      <c r="V8" s="88"/>
       <c r="W8" s="17"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="97" t="s">
+      <c r="Q9" s="79"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="98"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="15"/>
       <c r="X9" s="47"/>
       <c r="Y9" s="2"/>
@@ -8886,12 +8880,12 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="100"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="15"/>
       <c r="X10" s="47"/>
       <c r="Y10" s="2"/>
@@ -8913,12 +8907,12 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="15"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="8"/>
@@ -9003,81 +8997,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="11"/>
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="11"/>
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="11"/>
       <c r="X17" s="2"/>
     </row>
@@ -10245,25 +10239,59 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="Q9:R11"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="B15:V17"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="S9:T11"/>
-    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:S55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:S57"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
     <mergeCell ref="H45:S45"/>
     <mergeCell ref="T45:V45"/>
     <mergeCell ref="B45:D45"/>
@@ -10280,59 +10308,25 @@
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="H39:S39"/>
     <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="H41:S41"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:S55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:S57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
-    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="Q9:R11"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="B15:V17"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10353,7 +10347,7 @@
       <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -10378,13 +10372,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -10397,13 +10391,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -10416,13 +10410,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -10437,13 +10431,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -10454,13 +10448,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -10541,7 +10535,7 @@
       <c r="A18" s="29"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1">
+    <row r="19" spans="1:13" ht="14">
       <c r="A19" s="29"/>
       <c r="I19" s="30"/>
       <c r="M19" s="58"/>
@@ -10658,10 +10652,10 @@
       <c r="A43" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="114"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="35" t="s">
         <v>40</v>
       </c>
@@ -10669,117 +10663,117 @@
       <c r="F43" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="113" t="s">
+      <c r="G43" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="115"/>
-      <c r="I43" s="114"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="104" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="105"/>
+      <c r="E44" s="114"/>
       <c r="F44" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="104" t="s">
+      <c r="G44" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="106"/>
-      <c r="I44" s="105"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="104" t="s">
+      <c r="C45" s="114"/>
+      <c r="D45" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="105"/>
+      <c r="E45" s="114"/>
       <c r="F45" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="104" t="s">
+      <c r="G45" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="105"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="104" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="105"/>
+      <c r="E46" s="114"/>
       <c r="F46" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="104" t="s">
+      <c r="G46" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="105"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5">
+      <c r="H46" s="115"/>
+      <c r="I46" s="114"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110" t="s">
+      <c r="C47" s="114"/>
+      <c r="D47" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="111"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="110" t="s">
+      <c r="G47" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="53"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="114"/>
       <c r="F48" s="53"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="105"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="114"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="53"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="53"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="105"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="107" t="s">
@@ -10802,7 +10796,7 @@
       <c r="A52" s="29"/>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="14.25">
+    <row r="53" spans="1:9" ht="14">
       <c r="A53" s="29"/>
       <c r="B53" s="63">
         <v>1</v>
@@ -10817,7 +10811,7 @@
       <c r="H53" s="63"/>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="14.25">
+    <row r="54" spans="1:9" ht="14">
       <c r="A54" s="29"/>
       <c r="B54" s="63" t="s">
         <v>63</v>
@@ -10830,7 +10824,7 @@
       <c r="H54" s="63"/>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25">
+    <row r="55" spans="1:9" ht="14">
       <c r="A55" s="29"/>
       <c r="B55" s="63">
         <v>2</v>
@@ -10845,7 +10839,7 @@
       <c r="H55" s="63"/>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="14.25">
+    <row r="56" spans="1:9" ht="14">
       <c r="A56" s="29"/>
       <c r="B56" s="63" t="s">
         <v>63</v>
@@ -10858,7 +10852,7 @@
       <c r="H56" s="63"/>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="14.25">
+    <row r="57" spans="1:9" ht="14">
       <c r="A57" s="29"/>
       <c r="B57" s="63">
         <v>3</v>
@@ -10873,7 +10867,7 @@
       <c r="H57" s="63"/>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" ht="14.25">
+    <row r="58" spans="1:9" ht="14">
       <c r="A58" s="29"/>
       <c r="C58" s="63" t="s">
         <v>66</v>
@@ -10885,7 +10879,7 @@
       <c r="H58" s="63"/>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="14.25">
+    <row r="59" spans="1:9" ht="14">
       <c r="A59" s="29"/>
       <c r="B59" s="63"/>
       <c r="D59" s="63"/>
@@ -10895,7 +10889,7 @@
       <c r="H59" s="63"/>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="14.25">
+    <row r="60" spans="1:9" ht="14">
       <c r="A60" s="29"/>
       <c r="B60" s="63" t="s">
         <v>63</v>
@@ -10907,7 +10901,7 @@
       <c r="H60" s="63"/>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" ht="14.25">
+    <row r="61" spans="1:9" ht="14">
       <c r="A61" s="29"/>
       <c r="B61" s="63" t="s">
         <v>63</v>
@@ -10977,25 +10971,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="G49:I49"/>
@@ -11006,6 +10981,25 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -11025,7 +11019,7 @@
       <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -11050,13 +11044,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -11069,13 +11063,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -11088,13 +11082,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -11109,13 +11103,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -11126,13 +11120,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -11309,10 +11303,10 @@
       <c r="A42" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="114"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="35" t="s">
         <v>40</v>
       </c>
@@ -11320,228 +11314,228 @@
       <c r="F42" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="113" t="s">
+      <c r="G42" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="110" t="s">
+      <c r="C43" s="114"/>
+      <c r="D43" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="111"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="111"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="110" t="s">
+      <c r="G44" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110" t="s">
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="E45" s="117"/>
       <c r="F45" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="59"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="59"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="42"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="111"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="59"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="59"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="117"/>
       <c r="F52" s="59"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="111"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="117"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="117"/>
       <c r="F53" s="59"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="111"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="117"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="42"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="117"/>
       <c r="F54" s="59"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="111"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="117"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="42"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="117"/>
       <c r="F55" s="59"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="111"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="117"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="42"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="117"/>
       <c r="F56" s="59"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="111"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="117"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="42"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="59"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="111"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="117"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="42"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="111"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="54"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="111"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="117"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="42"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="111"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="117"/>
       <c r="F59" s="54"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="111"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="117"/>
     </row>
     <row r="60" spans="1:9" s="55" customFormat="1" ht="14.25" customHeight="1">
       <c r="A60" s="42"/>
@@ -11556,14 +11550,14 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="42"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="111"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="117"/>
       <c r="F61" s="59"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="111"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="117"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="107" t="s">
@@ -11590,7 +11584,7 @@
       <c r="A65" s="29"/>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:11" ht="14.25">
+    <row r="66" spans="1:11" ht="14">
       <c r="B66" s="63">
         <v>1</v>
       </c>
@@ -11606,7 +11600,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="63"/>
     </row>
-    <row r="67" spans="1:11" ht="14.25">
+    <row r="67" spans="1:11" ht="14">
       <c r="B67" s="63" t="s">
         <v>63</v>
       </c>
@@ -11622,13 +11616,13 @@
       <c r="J67" s="63"/>
       <c r="K67" s="63"/>
     </row>
-    <row r="68" spans="1:11" ht="14.25">
+    <row r="68" spans="1:11" ht="14">
       <c r="H68" s="63"/>
       <c r="I68" s="64"/>
       <c r="J68" s="63"/>
       <c r="K68" s="63"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25">
+    <row r="69" spans="1:11" ht="14">
       <c r="B69" s="63">
         <v>2</v>
       </c>
@@ -11644,7 +11638,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="63"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25">
+    <row r="70" spans="1:11" ht="14">
       <c r="B70" s="63" t="s">
         <v>63</v>
       </c>
@@ -11658,7 +11652,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="63"/>
     </row>
-    <row r="71" spans="1:11" ht="14.25">
+    <row r="71" spans="1:11" ht="14">
       <c r="B71" s="63" t="s">
         <v>63</v>
       </c>
@@ -11672,7 +11666,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="63"/>
     </row>
-    <row r="72" spans="1:11" ht="14.25">
+    <row r="72" spans="1:11" ht="14">
       <c r="B72" s="63" t="s">
         <v>63</v>
       </c>
@@ -11686,7 +11680,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="63"/>
     </row>
-    <row r="73" spans="1:11" ht="14.25">
+    <row r="73" spans="1:11" ht="14">
       <c r="B73" s="63"/>
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
@@ -11698,7 +11692,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="63"/>
     </row>
-    <row r="74" spans="1:11" ht="14.25">
+    <row r="74" spans="1:11" ht="14">
       <c r="B74" s="63" t="s">
         <v>63</v>
       </c>
@@ -11712,7 +11706,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="63"/>
     </row>
-    <row r="75" spans="1:11" ht="14.25">
+    <row r="75" spans="1:11" ht="14">
       <c r="B75" s="63" t="s">
         <v>63</v>
       </c>
@@ -11763,6 +11757,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="C6:G6"/>
@@ -11779,57 +11824,6 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11849,7 +11843,7 @@
       <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -11874,13 +11868,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -11893,13 +11887,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -11912,13 +11906,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -11933,13 +11927,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -11950,13 +11944,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -12124,10 +12118,10 @@
       <c r="A38" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="114"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="35" t="s">
         <v>40</v>
       </c>
@@ -12135,62 +12129,62 @@
       <c r="F38" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="113" t="s">
+      <c r="G38" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="115"/>
-      <c r="I38" s="114"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="110" t="s">
+      <c r="C39" s="114"/>
+      <c r="D39" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="111"/>
+      <c r="E39" s="117"/>
       <c r="F39" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="110" t="s">
+      <c r="G39" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="111"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.5">
+      <c r="H39" s="118"/>
+      <c r="I39" s="117"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="110" t="s">
+      <c r="C40" s="114"/>
+      <c r="D40" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="111"/>
+      <c r="E40" s="117"/>
       <c r="F40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="110" t="s">
+      <c r="G40" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="112"/>
-      <c r="I40" s="111"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.5">
+      <c r="H40" s="118"/>
+      <c r="I40" s="117"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="105"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="124" t="s">
         <v>59</v>
       </c>
@@ -12198,39 +12192,39 @@
       <c r="F41" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="110" t="s">
+      <c r="G41" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="111"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.5">
+      <c r="H41" s="118"/>
+      <c r="I41" s="117"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="106"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="62" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="66"/>
       <c r="F42" s="67"/>
-      <c r="G42" s="112" t="s">
+      <c r="G42" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.5">
+      <c r="H42" s="118"/>
+      <c r="I42" s="117"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="105"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="126" t="s">
         <v>92</v>
       </c>
@@ -12238,55 +12232,55 @@
       <c r="F43" s="69">
         <v>7</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
-    </row>
-    <row r="44" spans="1:9" ht="13.5">
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="42"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="111"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="59"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
       <c r="F45" s="54"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="54"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5">
+      <c r="G46" s="116"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="59"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="107" t="s">
@@ -12313,7 +12307,7 @@
       <c r="A51" s="29"/>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9" ht="14.25">
+    <row r="52" spans="1:9" ht="14">
       <c r="A52" s="29"/>
       <c r="B52" s="63">
         <v>1</v>
@@ -12328,7 +12322,7 @@
       <c r="H52" s="63"/>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="14.25">
+    <row r="53" spans="1:9" ht="14">
       <c r="A53" s="29"/>
       <c r="B53" s="63" t="s">
         <v>63</v>
@@ -12341,7 +12335,7 @@
       <c r="H53" s="63"/>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="14.25">
+    <row r="54" spans="1:9" ht="14">
       <c r="A54" s="29"/>
       <c r="B54" s="63">
         <v>2</v>
@@ -12356,7 +12350,7 @@
       <c r="H54" s="63"/>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25">
+    <row r="55" spans="1:9" ht="14">
       <c r="A55" s="29"/>
       <c r="B55" s="63" t="s">
         <v>63</v>
@@ -12369,7 +12363,7 @@
       <c r="H55" s="63"/>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="14.25">
+    <row r="56" spans="1:9" ht="14">
       <c r="A56" s="29"/>
       <c r="B56" s="63" t="s">
         <v>63</v>
@@ -12382,7 +12376,7 @@
       <c r="H56" s="63"/>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="14.25">
+    <row r="57" spans="1:9" ht="14">
       <c r="A57" s="29"/>
       <c r="B57" s="63" t="s">
         <v>63</v>
@@ -12395,7 +12389,7 @@
       <c r="H57" s="63"/>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" ht="14.25">
+    <row r="58" spans="1:9" ht="14">
       <c r="A58" s="29"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63"/>
@@ -12406,7 +12400,7 @@
       <c r="H58" s="63"/>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="14.25">
+    <row r="59" spans="1:9" ht="14">
       <c r="A59" s="29"/>
       <c r="B59" s="63" t="s">
         <v>63</v>
@@ -12472,21 +12466,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B38:C38"/>
@@ -12503,11 +12487,21 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="G40:I40"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12527,7 +12521,7 @@
       <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -12552,13 +12546,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -12571,13 +12565,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -12590,13 +12584,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -12611,13 +12605,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -12628,13 +12622,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -12818,10 +12812,10 @@
       <c r="A42" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="114"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="35" t="s">
         <v>40</v>
       </c>
@@ -12829,150 +12823,150 @@
       <c r="F42" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="113" t="s">
+      <c r="G42" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="110" t="s">
+      <c r="C43" s="114"/>
+      <c r="D43" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="111"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
-    </row>
-    <row r="44" spans="1:9" ht="13.5">
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="111"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="59">
         <v>20</v>
       </c>
-      <c r="G44" s="110" t="s">
+      <c r="G44" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110" t="s">
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="E45" s="117"/>
       <c r="F45" s="61">
         <v>8</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="111"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="110" t="s">
+      <c r="G46" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="111"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
@@ -13100,12 +13094,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -13118,25 +13125,12 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13156,7 +13150,7 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -13174,20 +13168,20 @@
       <c r="H1" s="108"/>
       <c r="I1" s="109"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5">
+    <row r="2" spans="1:9">
       <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -13200,13 +13194,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -13219,13 +13213,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -13240,13 +13234,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -13257,13 +13251,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -13447,10 +13441,10 @@
       <c r="A42" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="114"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="35" t="s">
         <v>40</v>
       </c>
@@ -13458,140 +13452,140 @@
       <c r="F42" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="113" t="s">
+      <c r="G42" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="110" t="s">
+      <c r="C43" s="117"/>
+      <c r="D43" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="111"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="54">
         <v>2</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.95" customHeight="1">
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
+    </row>
+    <row r="44" spans="1:9" ht="13" customHeight="1">
       <c r="A44" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="111"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="110" t="s">
+      <c r="G44" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110" t="s">
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="E45" s="117"/>
       <c r="F45" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="56"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="111"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
@@ -13719,12 +13713,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -13737,25 +13744,12 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13772,7 +13766,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -13790,7 +13784,7 @@
       <c r="H1" s="108"/>
       <c r="I1" s="109"/>
     </row>
-    <row r="2" spans="1:9" ht="12.95" customHeight="1">
+    <row r="2" spans="1:9" ht="13" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
@@ -13809,7 +13803,7 @@
       </c>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="12.95" customHeight="1">
+    <row r="3" spans="1:9" ht="13" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="18" t="s">
         <v>22</v>
@@ -13826,7 +13820,7 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.95" customHeight="1">
+    <row r="4" spans="1:9" ht="13" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="18" t="s">
         <v>25</v>
@@ -13850,11 +13844,11 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -13865,11 +13859,11 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -14048,17 +14042,17 @@
       <c r="I41" s="33"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
@@ -14083,126 +14077,126 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="114"/>
       <c r="F44" s="43"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="105"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="114"/>
       <c r="F45" s="43"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="105"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="105"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="114"/>
       <c r="F46" s="43"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="105"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="114"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="105"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="114"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="114"/>
       <c r="F48" s="43"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="105"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="114"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="43"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="105"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="105"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="43"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="105"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="105"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="105"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="105"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="114"/>
       <c r="F52" s="43"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="105"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="114"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="105"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="114"/>
       <c r="F53" s="43"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="105"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="114"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="114"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="29"/>
@@ -14309,6 +14303,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -14325,29 +14342,6 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G51:I51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14357,6 +14351,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -14528,33 +14541,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BD6BD65-EF1D-4BC1-8F21-A284A077EF6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F144B723-4FB8-4D6B-A48E-1AAAF7964110}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F144B723-4FB8-4D6B-A48E-1AAAF7964110}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BD6BD65-EF1D-4BC1-8F21-A284A077EF6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面レイアウト.xlsx
+++ b/02_画面設計書・モックアップ/画面レイアウト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3877C5-B7E5-4824-AE78-FA7D8B801031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0481A42-6FB1-4B24-A02E-6C716F3204CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="784" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" tabRatio="784" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1206,27 +1206,6 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1281,14 +1260,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1298,6 +1298,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1309,22 +1318,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2622,65 +2622,18 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166968</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E99C7B4-9052-3E5B-F7C7-CECD55CD5710}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{797AFBAB-B220-407F-A12A-89A09B1A3E69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="962025" y="1581150"/>
-          <a:ext cx="7419975" cy="4552950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156322</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158003</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2698,8 +2651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="2609850"/>
-          <a:ext cx="1343025" cy="1495425"/>
+          <a:off x="9714380" y="4490197"/>
+          <a:ext cx="1334060" cy="1550894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2839,16 +2792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>463923</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200585</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2874,8 +2827,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="800100" y="3019425"/>
-          <a:ext cx="1085850" cy="1071563"/>
+          <a:off x="9338982" y="2861422"/>
+          <a:ext cx="1081368" cy="1114706"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2905,16 +2858,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>377638</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276785</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2933,15 +2886,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="2295525"/>
-          <a:ext cx="571500" cy="561975"/>
+          <a:off x="9925050" y="3345516"/>
+          <a:ext cx="571500" cy="580465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2952,16 +2905,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>388844</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>154081</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2979,8 +2932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1009650" y="1619250"/>
-          <a:ext cx="1114425" cy="704850"/>
+          <a:off x="12625668" y="3485029"/>
+          <a:ext cx="1109942" cy="729503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3120,16 +3073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>624167</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3149,8 +3102,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="666750" y="2209800"/>
-          <a:ext cx="342900" cy="266700"/>
+          <a:off x="9160808" y="2693333"/>
+          <a:ext cx="338418" cy="279027"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3180,16 +3133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>878541</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>463923</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3208,15 +3161,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="3800475"/>
-          <a:ext cx="571500" cy="581025"/>
+          <a:off x="8767482" y="3673288"/>
+          <a:ext cx="571500" cy="605678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3227,16 +3180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>448233</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>34178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>255492</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3254,8 +3207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7153275" y="1581150"/>
-          <a:ext cx="1228725" cy="742950"/>
+          <a:off x="9995645" y="1546972"/>
+          <a:ext cx="1151965" cy="727822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3395,16 +3348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142315</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3424,8 +3377,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7905750" y="2333625"/>
-          <a:ext cx="552450" cy="419100"/>
+          <a:off x="10362080" y="2823322"/>
+          <a:ext cx="547967" cy="437590"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3455,16 +3408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443192</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>59952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342339</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>142315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3483,15 +3436,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="2695575"/>
-          <a:ext cx="571500" cy="561975"/>
+          <a:off x="9990604" y="2917452"/>
+          <a:ext cx="571500" cy="586628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8444,15 +8397,15 @@
   </sheetPr>
   <dimension ref="A1:FL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:N9"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.6328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="4.6328125" style="5" customWidth="1"/>
-    <col min="6" max="24" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="4.625" style="5" customWidth="1"/>
+    <col min="6" max="24" width="4.625" style="1" customWidth="1"/>
     <col min="25" max="28" width="4" style="1" customWidth="1"/>
     <col min="29" max="16384" width="13" style="1"/>
   </cols>
@@ -8670,16 +8623,16 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="91" t="s">
+      <c r="Q3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="88"/>
-      <c r="S3" s="86">
+      <c r="R3" s="81"/>
+      <c r="S3" s="79">
         <v>44830</v>
       </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="88"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="81"/>
       <c r="W3" s="17"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -8774,14 +8727,14 @@
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
@@ -8799,66 +8752,66 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="92" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="94"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="91" t="s">
+      <c r="Q8" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="88"/>
-      <c r="S8" s="91" t="s">
+      <c r="R8" s="81"/>
+      <c r="S8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="88"/>
-      <c r="U8" s="91" t="s">
+      <c r="T8" s="81"/>
+      <c r="U8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="88"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="17"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="97"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="79" t="s">
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="80"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="15"/>
       <c r="X9" s="47"/>
       <c r="Y9" s="2"/>
@@ -8880,12 +8833,12 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="82"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="15"/>
       <c r="X10" s="47"/>
       <c r="Y10" s="2"/>
@@ -8907,12 +8860,12 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="84"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
       <c r="W11" s="15"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="8"/>
@@ -8997,81 +8950,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="11"/>
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
       <c r="W16" s="11"/>
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
       <c r="W17" s="11"/>
       <c r="X17" s="2"/>
     </row>
@@ -10239,6 +10192,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
+    <mergeCell ref="Q9:R11"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="B15:V17"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E8:N9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:S53"/>
+    <mergeCell ref="T53:V53"/>
     <mergeCell ref="T57:V57"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="H41:S41"/>
@@ -10255,78 +10280,6 @@
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="H54:S54"/>
     <mergeCell ref="T55:V55"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E8:N9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="H39:S39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="Q9:R11"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="B15:V17"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="S9:T11"/>
-    <mergeCell ref="U9:V11"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10347,7 +10300,7 @@
       <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -10372,13 +10325,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -10391,13 +10344,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -10410,13 +10363,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -10431,13 +10384,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -10448,13 +10401,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -10535,7 +10488,7 @@
       <c r="A18" s="29"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:13" ht="14">
+    <row r="19" spans="1:13" ht="14.25">
       <c r="A19" s="29"/>
       <c r="I19" s="30"/>
       <c r="M19" s="58"/>
@@ -10652,10 +10605,10 @@
       <c r="A43" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="111"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="35" t="s">
         <v>40</v>
       </c>
@@ -10663,117 +10616,117 @@
       <c r="F43" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="114"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="113" t="s">
+      <c r="C44" s="105"/>
+      <c r="D44" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="114"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="113" t="s">
+      <c r="G44" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="115"/>
-      <c r="I44" s="114"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="105"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="113" t="s">
+      <c r="C45" s="105"/>
+      <c r="D45" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="114"/>
+      <c r="E45" s="105"/>
       <c r="F45" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="113" t="s">
+      <c r="G45" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="115"/>
-      <c r="I45" s="114"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="105"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="113" t="s">
+      <c r="C46" s="105"/>
+      <c r="D46" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="105"/>
       <c r="F46" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="113" t="s">
+      <c r="G46" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="115"/>
-      <c r="I46" s="114"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="105"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116" t="s">
+      <c r="C47" s="105"/>
+      <c r="D47" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="117"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="116" t="s">
+      <c r="G47" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="53"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="114"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="105"/>
       <c r="F48" s="53"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="114"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="105"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="53"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
       <c r="F49" s="53"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="114"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="105"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="107" t="s">
@@ -10796,7 +10749,7 @@
       <c r="A52" s="29"/>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="14">
+    <row r="53" spans="1:9" ht="14.25">
       <c r="A53" s="29"/>
       <c r="B53" s="63">
         <v>1</v>
@@ -10811,7 +10764,7 @@
       <c r="H53" s="63"/>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="14">
+    <row r="54" spans="1:9" ht="14.25">
       <c r="A54" s="29"/>
       <c r="B54" s="63" t="s">
         <v>63</v>
@@ -10824,7 +10777,7 @@
       <c r="H54" s="63"/>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="14">
+    <row r="55" spans="1:9" ht="14.25">
       <c r="A55" s="29"/>
       <c r="B55" s="63">
         <v>2</v>
@@ -10839,7 +10792,7 @@
       <c r="H55" s="63"/>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="14">
+    <row r="56" spans="1:9" ht="14.25">
       <c r="A56" s="29"/>
       <c r="B56" s="63" t="s">
         <v>63</v>
@@ -10852,7 +10805,7 @@
       <c r="H56" s="63"/>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="14">
+    <row r="57" spans="1:9" ht="14.25">
       <c r="A57" s="29"/>
       <c r="B57" s="63">
         <v>3</v>
@@ -10867,7 +10820,7 @@
       <c r="H57" s="63"/>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" ht="14">
+    <row r="58" spans="1:9" ht="14.25">
       <c r="A58" s="29"/>
       <c r="C58" s="63" t="s">
         <v>66</v>
@@ -10879,7 +10832,7 @@
       <c r="H58" s="63"/>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="14">
+    <row r="59" spans="1:9" ht="14.25">
       <c r="A59" s="29"/>
       <c r="B59" s="63"/>
       <c r="D59" s="63"/>
@@ -10889,7 +10842,7 @@
       <c r="H59" s="63"/>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="14">
+    <row r="60" spans="1:9" ht="14.25">
       <c r="A60" s="29"/>
       <c r="B60" s="63" t="s">
         <v>63</v>
@@ -10901,7 +10854,7 @@
       <c r="H60" s="63"/>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" ht="14">
+    <row r="61" spans="1:9" ht="14.25">
       <c r="A61" s="29"/>
       <c r="B61" s="63" t="s">
         <v>63</v>
@@ -10971,6 +10924,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="G49:I49"/>
@@ -10981,25 +10953,6 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -11015,11 +10968,11 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -11044,13 +10997,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -11063,13 +11016,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -11082,13 +11035,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -11103,13 +11056,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -11120,13 +11073,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -11303,10 +11256,10 @@
       <c r="A42" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="35" t="s">
         <v>40</v>
       </c>
@@ -11314,228 +11267,228 @@
       <c r="F42" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="116" t="s">
+      <c r="C43" s="105"/>
+      <c r="D43" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="117"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="116" t="s">
+      <c r="G43" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="116" t="s">
+      <c r="C44" s="105"/>
+      <c r="D44" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="117"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="116" t="s">
+      <c r="G44" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="117"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="116" t="s">
+      <c r="C45" s="105"/>
+      <c r="D45" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="117"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="116" t="s">
+      <c r="G45" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="59"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="117"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="59"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="42"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="117"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="117"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="111"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="59"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="117"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="117"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="59"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="117"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="117"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="59"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="117"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="111"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="117"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="59"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="117"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="42"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="117"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="59"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="117"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="42"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="117"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="59"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="118"/>
-      <c r="I55" s="117"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="111"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="42"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="117"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="59"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="117"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="42"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="117"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="59"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="117"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="111"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="42"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="111"/>
       <c r="F58" s="54"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="117"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="111"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="42"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="117"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="111"/>
       <c r="F59" s="54"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="117"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="111"/>
     </row>
     <row r="60" spans="1:9" s="55" customFormat="1" ht="14.25" customHeight="1">
       <c r="A60" s="42"/>
@@ -11550,14 +11503,14 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="42"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="117"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="111"/>
       <c r="F61" s="59"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="117"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="111"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="107" t="s">
@@ -11584,7 +11537,7 @@
       <c r="A65" s="29"/>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:11" ht="14">
+    <row r="66" spans="1:11" ht="14.25">
       <c r="B66" s="63">
         <v>1</v>
       </c>
@@ -11600,7 +11553,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="63"/>
     </row>
-    <row r="67" spans="1:11" ht="14">
+    <row r="67" spans="1:11" ht="14.25">
       <c r="B67" s="63" t="s">
         <v>63</v>
       </c>
@@ -11616,13 +11569,13 @@
       <c r="J67" s="63"/>
       <c r="K67" s="63"/>
     </row>
-    <row r="68" spans="1:11" ht="14">
+    <row r="68" spans="1:11" ht="14.25">
       <c r="H68" s="63"/>
       <c r="I68" s="64"/>
       <c r="J68" s="63"/>
       <c r="K68" s="63"/>
     </row>
-    <row r="69" spans="1:11" ht="14">
+    <row r="69" spans="1:11" ht="14.25">
       <c r="B69" s="63">
         <v>2</v>
       </c>
@@ -11638,7 +11591,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="63"/>
     </row>
-    <row r="70" spans="1:11" ht="14">
+    <row r="70" spans="1:11" ht="14.25">
       <c r="B70" s="63" t="s">
         <v>63</v>
       </c>
@@ -11652,7 +11605,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="63"/>
     </row>
-    <row r="71" spans="1:11" ht="14">
+    <row r="71" spans="1:11" ht="14.25">
       <c r="B71" s="63" t="s">
         <v>63</v>
       </c>
@@ -11666,7 +11619,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="63"/>
     </row>
-    <row r="72" spans="1:11" ht="14">
+    <row r="72" spans="1:11" ht="14.25">
       <c r="B72" s="63" t="s">
         <v>63</v>
       </c>
@@ -11680,7 +11633,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="63"/>
     </row>
-    <row r="73" spans="1:11" ht="14">
+    <row r="73" spans="1:11" ht="14.25">
       <c r="B73" s="63"/>
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
@@ -11692,7 +11645,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="63"/>
     </row>
-    <row r="74" spans="1:11" ht="14">
+    <row r="74" spans="1:11" ht="14.25">
       <c r="B74" s="63" t="s">
         <v>63</v>
       </c>
@@ -11706,7 +11659,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="63"/>
     </row>
-    <row r="75" spans="1:11" ht="14">
+    <row r="75" spans="1:11" ht="14.25">
       <c r="B75" s="63" t="s">
         <v>63</v>
       </c>
@@ -11757,6 +11710,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="B56:C56"/>
@@ -11773,57 +11777,6 @@
     <mergeCell ref="G49:I49"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11843,7 +11796,7 @@
       <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -11868,13 +11821,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -11887,13 +11840,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -11906,13 +11859,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -11927,13 +11880,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -11944,13 +11897,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -12118,10 +12071,10 @@
       <c r="A38" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="111"/>
+      <c r="C38" s="114"/>
       <c r="D38" s="35" t="s">
         <v>40</v>
       </c>
@@ -12129,62 +12082,62 @@
       <c r="F38" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="110" t="s">
+      <c r="G38" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="112"/>
-      <c r="I38" s="111"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="114"/>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="116" t="s">
+      <c r="C39" s="105"/>
+      <c r="D39" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="117"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="116" t="s">
+      <c r="G39" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="118"/>
-      <c r="I39" s="117"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="111"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="116" t="s">
+      <c r="C40" s="105"/>
+      <c r="D40" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="117"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="116" t="s">
+      <c r="G40" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="118"/>
-      <c r="I40" s="117"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="111"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="114"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="124" t="s">
         <v>59</v>
       </c>
@@ -12192,39 +12145,39 @@
       <c r="F41" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="116" t="s">
+      <c r="G41" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="118"/>
-      <c r="I41" s="117"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="111"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="115"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="62" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="66"/>
       <c r="F42" s="67"/>
-      <c r="G42" s="118" t="s">
+      <c r="G42" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="118"/>
-      <c r="I42" s="117"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="114"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="126" t="s">
         <v>92</v>
       </c>
@@ -12232,55 +12185,55 @@
       <c r="F43" s="69">
         <v>7</v>
       </c>
-      <c r="G43" s="116" t="s">
+      <c r="G43" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="117"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="59"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="117"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="117"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="54"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="54"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="117"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="59"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="107" t="s">
@@ -12307,7 +12260,7 @@
       <c r="A51" s="29"/>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9" ht="14">
+    <row r="52" spans="1:9" ht="14.25">
       <c r="A52" s="29"/>
       <c r="B52" s="63">
         <v>1</v>
@@ -12322,7 +12275,7 @@
       <c r="H52" s="63"/>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="14">
+    <row r="53" spans="1:9" ht="14.25">
       <c r="A53" s="29"/>
       <c r="B53" s="63" t="s">
         <v>63</v>
@@ -12335,7 +12288,7 @@
       <c r="H53" s="63"/>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="14">
+    <row r="54" spans="1:9" ht="14.25">
       <c r="A54" s="29"/>
       <c r="B54" s="63">
         <v>2</v>
@@ -12350,7 +12303,7 @@
       <c r="H54" s="63"/>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="14">
+    <row r="55" spans="1:9" ht="14.25">
       <c r="A55" s="29"/>
       <c r="B55" s="63" t="s">
         <v>63</v>
@@ -12363,7 +12316,7 @@
       <c r="H55" s="63"/>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="14">
+    <row r="56" spans="1:9" ht="14.25">
       <c r="A56" s="29"/>
       <c r="B56" s="63" t="s">
         <v>63</v>
@@ -12376,7 +12329,7 @@
       <c r="H56" s="63"/>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="14">
+    <row r="57" spans="1:9" ht="14.25">
       <c r="A57" s="29"/>
       <c r="B57" s="63" t="s">
         <v>63</v>
@@ -12389,7 +12342,7 @@
       <c r="H57" s="63"/>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" ht="14">
+    <row r="58" spans="1:9" ht="14.25">
       <c r="A58" s="29"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63"/>
@@ -12400,7 +12353,7 @@
       <c r="H58" s="63"/>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="14">
+    <row r="59" spans="1:9" ht="14.25">
       <c r="A59" s="29"/>
       <c r="B59" s="63" t="s">
         <v>63</v>
@@ -12466,11 +12419,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B38:C38"/>
@@ -12487,21 +12450,11 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="G40:I40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12517,11 +12470,11 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -12546,13 +12499,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -12565,13 +12518,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -12584,13 +12537,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -12605,13 +12558,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -12622,13 +12575,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -12812,10 +12765,10 @@
       <c r="A42" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="35" t="s">
         <v>40</v>
       </c>
@@ -12823,150 +12776,150 @@
       <c r="F42" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="116" t="s">
+      <c r="C43" s="105"/>
+      <c r="D43" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="117"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="116" t="s">
+      <c r="G43" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="116" t="s">
+      <c r="C44" s="105"/>
+      <c r="D44" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="117"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="59">
         <v>20</v>
       </c>
-      <c r="G44" s="116" t="s">
+      <c r="G44" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="117"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="116" t="s">
+      <c r="C45" s="105"/>
+      <c r="D45" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="117"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="61">
         <v>8</v>
       </c>
-      <c r="G45" s="116" t="s">
+      <c r="G45" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="116" t="s">
+      <c r="C46" s="105"/>
+      <c r="D46" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="117"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="116" t="s">
+      <c r="G46" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="118"/>
-      <c r="I46" s="117"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="117"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="117"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="111"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="117"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="117"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="117"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
@@ -13094,25 +13047,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -13125,12 +13065,25 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13150,7 +13103,7 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -13175,13 +13128,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -13194,13 +13147,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -13213,13 +13166,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -13234,13 +13187,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -13251,13 +13204,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -13441,10 +13394,10 @@
       <c r="A42" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="35" t="s">
         <v>40</v>
       </c>
@@ -13452,140 +13405,140 @@
       <c r="F42" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="117"/>
-      <c r="D43" s="116" t="s">
+      <c r="C43" s="111"/>
+      <c r="D43" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="117"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="54">
         <v>2</v>
       </c>
-      <c r="G43" s="116" t="s">
+      <c r="G43" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
-    </row>
-    <row r="44" spans="1:9" ht="13" customHeight="1">
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.95" customHeight="1">
       <c r="A44" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="116" t="s">
+      <c r="C44" s="105"/>
+      <c r="D44" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="117"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="116" t="s">
+      <c r="G44" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="117"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="116" t="s">
+      <c r="C45" s="105"/>
+      <c r="D45" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="117"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="116" t="s">
+      <c r="G45" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="56"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="117"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="117"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="117"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="111"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="117"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="117"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="117"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
@@ -13713,25 +13666,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -13744,12 +13684,25 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13766,7 +13719,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
@@ -13784,7 +13737,7 @@
       <c r="H1" s="108"/>
       <c r="I1" s="109"/>
     </row>
-    <row r="2" spans="1:9" ht="13" customHeight="1">
+    <row r="2" spans="1:9" ht="12.95" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
@@ -13803,7 +13756,7 @@
       </c>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="13" customHeight="1">
+    <row r="3" spans="1:9" ht="12.95" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="18" t="s">
         <v>22</v>
@@ -13820,7 +13773,7 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="13" customHeight="1">
+    <row r="4" spans="1:9" ht="12.95" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="18" t="s">
         <v>25</v>
@@ -13844,11 +13797,11 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -13859,11 +13812,11 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -14042,17 +13995,17 @@
       <c r="I41" s="33"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
@@ -14077,126 +14030,126 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="114"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="43"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="114"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="105"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="114"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="105"/>
       <c r="F45" s="43"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="114"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="105"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="114"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="105"/>
       <c r="F46" s="43"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="114"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="105"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="114"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="114"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="105"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="114"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="105"/>
       <c r="F48" s="43"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="114"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="105"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
       <c r="F49" s="43"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="114"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="105"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="105"/>
       <c r="F50" s="43"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="114"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="105"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="114"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="105"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="114"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="105"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="114"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="105"/>
       <c r="F52" s="43"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="114"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="105"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="114"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="105"/>
       <c r="F53" s="43"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="114"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="105"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="110" t="s">
+      <c r="A54" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="111"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="114"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="29"/>
@@ -14303,29 +14256,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B50:C50"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -14342,6 +14272,29 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G51:I51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14360,16 +14313,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -14541,6 +14484,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F144B723-4FB8-4D6B-A48E-1AAAF7964110}">
   <ds:schemaRefs>
@@ -14550,16 +14503,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BD6BD65-EF1D-4BC1-8F21-A284A077EF6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14575,4 +14518,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面レイアウト.xlsx
+++ b/02_画面設計書・モックアップ/画面レイアウト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0481A42-6FB1-4B24-A02E-6C716F3204CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1ED1B-EBAC-460E-809E-404171EA675A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" tabRatio="784" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" tabRatio="784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="126">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -299,10 +299,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ゲーミングデバイスの販売サイト の利用に必要なログイン画面のレイアウトを示す</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>レイアウト図</t>
     <rPh sb="5" eb="6">
       <t>ズ</t>
@@ -416,9 +412,6 @@
   </si>
   <si>
     <t>画像</t>
-  </si>
-  <si>
-    <t>オリジナルロゴ</t>
   </si>
   <si>
     <t>操作手順</t>
@@ -668,6 +661,63 @@
   </si>
   <si>
     <t>掲示板FuJi</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを忘れた方はこちら</t>
+    <rPh sb="6" eb="7">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを変更するボタン</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録をするボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>藤元</t>
+    <rPh sb="0" eb="2">
+      <t>フジモト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>掲示板FuJiの利用に必要なログイン画面のレイアウトを示す</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
     </rPh>
@@ -1206,6 +1256,27 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,35 +1331,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1298,15 +1348,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1318,13 +1359,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1449,25 +1499,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>423334</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39512</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5664374C-18CC-88D6-96D0-D8F71047D59B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2F888D11-F48E-B2BD-0525-B5F0516CC41D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AFD7D0-615E-4488-B70E-F73CA804E9E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,15 +1523,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="1457325"/>
-          <a:ext cx="6724650" cy="4524375"/>
+          <a:off x="423334" y="1674090"/>
+          <a:ext cx="7544057" cy="4243532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,16 +1548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>113049</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>55899</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9621</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1524,8 +1577,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6181725" y="2686050"/>
-          <a:ext cx="933450" cy="400050"/>
+          <a:off x="5067973" y="2875780"/>
+          <a:ext cx="933835" cy="433917"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1555,16 +1608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>779127</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>153940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673487</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66098</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1582,8 +1635,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2000250" y="4419600"/>
-          <a:ext cx="4133850" cy="571500"/>
+          <a:off x="3752082" y="3973561"/>
+          <a:ext cx="885344" cy="258522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1624,26 +1677,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>471437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67349</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163559</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="四角形 2">
+        <xdr:cNvPr id="38" name="四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265AC574-F334-477F-8A07-6E8E271118AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B0D8E9-B917-4F63-8DFE-DA09B463A059}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{59F9510A-8532-4EFF-A31E-850F5F048D38}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{265AC574-F334-477F-8A07-6E8E271118AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,8 +1704,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2009775" y="3600450"/>
-          <a:ext cx="4124325" cy="581025"/>
+          <a:off x="3444392" y="3223106"/>
+          <a:ext cx="1577881" cy="240529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1792,26 +1845,287 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142009</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>84859</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153747</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0C40BD-AAE5-481B-A195-63CE06542E04}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{61B0D8E9-B917-4F63-8DFE-DA09B463A059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5096933" y="3202709"/>
+          <a:ext cx="933835" cy="424296"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>680893</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>153170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623743</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46663</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63DEA4F-A250-4EEF-9387-822C304C84E0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5E0C40BD-AAE5-481B-A195-63CE06542E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4644832" y="3799609"/>
+          <a:ext cx="933835" cy="413039"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>903720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484235</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8F635E-B14A-1826-AC9E-4FA44DCB6EB4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F63DEA4F-A250-4EEF-9387-822C304C84E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5858644" y="2491413"/>
+          <a:ext cx="571500" cy="595746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>941821</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>522336</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D02FEAD-0534-98C3-9E08-BB8FBECE1FDA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FD8F635E-B14A-1826-AC9E-4FA44DCB6EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5896745" y="2866641"/>
+          <a:ext cx="571500" cy="614795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>538019</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F888D11-F48E-B2BD-0525-B5F0516CC41D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4D02FEAD-0534-98C3-9E08-BB8FBECE1FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492943" y="3472873"/>
+          <a:ext cx="571500" cy="595745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>636540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>817803</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="四角形 3">
+        <xdr:cNvPr id="56" name="四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B0D8E9-B917-4F63-8DFE-DA09B463A059}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0FCC18-7B56-4419-8748-2A3A9F040453}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{265AC574-F334-477F-8A07-6E8E271118AF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2F888D11-F48E-B2BD-0525-B5F0516CC41D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,8 +2133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="2914650"/>
-          <a:ext cx="4105275" cy="542925"/>
+          <a:off x="3609495" y="4396893"/>
+          <a:ext cx="1172247" cy="153939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1960,26 +2274,196 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>516756</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>927638</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>97791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A0DDD2-E5A5-4E9B-BC6D-6B6266D021D2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6D0FCC18-7B56-4419-8748-2A3A9F040453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5471680" y="4069676"/>
+          <a:ext cx="410882" cy="367282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>907089</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>133831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487989</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133831</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線コネクタ 4">
+        <xdr:cNvPr id="63" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0C40BD-AAE5-481B-A195-63CE06542E04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C491A49-1D59-4A69-A2A5-9E42B8613546}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{61B0D8E9-B917-4F63-8DFE-DA09B463A059}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{27A0DDD2-E5A5-4E9B-BC6D-6B6266D021D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,8 +2473,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="3524250"/>
-          <a:ext cx="933450" cy="390525"/>
+          <a:off x="4871028" y="4299816"/>
+          <a:ext cx="571885" cy="173182"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2020,227 +2504,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>460277</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63DEA4F-A250-4EEF-9387-822C304C84E0}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5E0C40BD-AAE5-481B-A195-63CE06542E04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6162675" y="4295775"/>
-          <a:ext cx="933450" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8F635E-B14A-1826-AC9E-4FA44DCB6EB4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F63DEA4F-A250-4EEF-9387-822C304C84E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7000875" y="2314575"/>
-          <a:ext cx="571500" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D02FEAD-0534-98C3-9E08-BB8FBECE1FDA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FD8F635E-B14A-1826-AC9E-4FA44DCB6EB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7038975" y="3133725"/>
-          <a:ext cx="571500" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F888D11-F48E-B2BD-0525-B5F0516CC41D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4D02FEAD-0534-98C3-9E08-BB8FBECE1FDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="3933825"/>
-          <a:ext cx="571500" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56189</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="四角形 6">
+        <xdr:cNvPr id="17" name="四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0FCC18-7B56-4419-8748-2A3A9F040453}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AA5B0E-50CC-45A2-94E7-D5BF8E3BC9E1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2F888D11-F48E-B2BD-0525-B5F0516CC41D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{265AC574-F334-477F-8A07-6E8E271118AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,8 +2531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="1619250"/>
-          <a:ext cx="847725" cy="381000"/>
+          <a:off x="3433232" y="3529445"/>
+          <a:ext cx="1577881" cy="240529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2389,23 +2672,191 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>981364</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>687107</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30443</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>461819</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94671</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="四角形 7">
+        <xdr:cNvPr id="19" name="四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A0DDD2-E5A5-4E9B-BC6D-6B6266D021D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C752BAEF-CC56-4C2B-AEAB-E556DA4D4D93}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2F888D11-F48E-B2BD-0525-B5F0516CC41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3954319" y="4618182"/>
+          <a:ext cx="471439" cy="162019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91884</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502766</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC715AE6-6452-4D77-9644-94CFE5DE8A01}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6D0FCC18-7B56-4419-8748-2A3A9F040453}"/>
@@ -2416,8 +2867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2257425" y="1466850"/>
-          <a:ext cx="410882" cy="344768"/>
+          <a:off x="5046808" y="4635788"/>
+          <a:ext cx="410882" cy="367282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2545,7 +2996,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>④</a:t>
+            <a:t>⑤</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
@@ -2559,23 +3010,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539944</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144318</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線コネクタ 8">
+        <xdr:cNvPr id="21" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C491A49-1D59-4A69-A2A5-9E42B8613546}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D666CB8-5006-48B0-A64B-529BBCF11200}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{27A0DDD2-E5A5-4E9B-BC6D-6B6266D021D2}"/>
@@ -2587,9 +3038,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1676400" y="1704975"/>
-          <a:ext cx="571500" cy="161925"/>
+        <a:xfrm>
+          <a:off x="4503883" y="4769716"/>
+          <a:ext cx="595359" cy="21648"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8397,8 +8848,8 @@
   </sheetPr>
   <dimension ref="A1:FL61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -8623,16 +9074,16 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="81"/>
-      <c r="S3" s="79">
-        <v>44830</v>
-      </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="81"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="86">
+        <v>45042</v>
+      </c>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="88"/>
       <c r="W3" s="17"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -8727,14 +9178,14 @@
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
@@ -8752,66 +9203,66 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="84" t="s">
+      <c r="Q8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="81"/>
-      <c r="S8" s="84" t="s">
+      <c r="R8" s="88"/>
+      <c r="S8" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="81"/>
-      <c r="U8" s="84" t="s">
+      <c r="T8" s="88"/>
+      <c r="U8" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="81"/>
+      <c r="V8" s="88"/>
       <c r="W8" s="17"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="97" t="s">
+      <c r="Q9" s="79"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="98"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="15"/>
       <c r="X9" s="47"/>
       <c r="Y9" s="2"/>
@@ -8833,12 +9284,12 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="100"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="15"/>
       <c r="X10" s="47"/>
       <c r="Y10" s="2"/>
@@ -8860,12 +9311,12 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="15"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="8"/>
@@ -8950,81 +9401,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="11"/>
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="11"/>
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="11"/>
       <c r="X17" s="2"/>
     </row>
@@ -10192,25 +10643,59 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="Q9:R11"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="B15:V17"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="S9:T11"/>
-    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:S55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:S57"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
     <mergeCell ref="H45:S45"/>
     <mergeCell ref="T45:V45"/>
     <mergeCell ref="B45:D45"/>
@@ -10227,59 +10712,25 @@
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="H39:S39"/>
     <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="H41:S41"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:S55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:S57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
-    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="Q9:R11"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="B15:V17"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10296,8 +10747,8 @@
   </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I4"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -10325,18 +10776,18 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10344,18 +10795,18 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="41">
-        <v>44830</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10363,13 +10814,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -10384,13 +10835,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -10401,13 +10852,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -10419,7 +10870,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -10430,7 +10881,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -10590,7 +11041,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="108"/>
       <c r="C42" s="108"/>
@@ -10603,134 +11054,144 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="C43" s="111"/>
+      <c r="D43" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="115"/>
-      <c r="I43" s="114"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="104" t="s">
+      <c r="E44" s="114"/>
+      <c r="F44" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="53" t="s">
+      <c r="G44" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="106"/>
-      <c r="I44" s="105"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="C45" s="114"/>
+      <c r="D45" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="114"/>
+      <c r="F45" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="105"/>
-      <c r="F45" s="53" t="s">
+      <c r="G45" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="105"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="104" t="s">
+      <c r="E46" s="114"/>
+      <c r="F46" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="105"/>
-      <c r="F46" s="42" t="s">
+      <c r="G46" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="105"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="111"/>
+        <v>56</v>
+      </c>
+      <c r="B47" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="117"/>
       <c r="F47" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+        <v>54</v>
+      </c>
+      <c r="G47" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="53"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="105"/>
+      <c r="A48" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="114"/>
+      <c r="D48" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="114"/>
+      <c r="F48" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="115"/>
+      <c r="I48" s="114"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="53"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="53"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="105"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="108"/>
       <c r="C50" s="108"/>
@@ -10755,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
@@ -10767,7 +11228,7 @@
     <row r="54" spans="1:9" ht="14.25">
       <c r="A54" s="29"/>
       <c r="B54" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
@@ -10783,7 +11244,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
@@ -10795,7 +11256,7 @@
     <row r="56" spans="1:9" ht="14.25">
       <c r="A56" s="29"/>
       <c r="B56" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
@@ -10811,7 +11272,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" s="63"/>
       <c r="E57" s="63"/>
@@ -10823,7 +11284,7 @@
     <row r="58" spans="1:9" ht="14.25">
       <c r="A58" s="29"/>
       <c r="C58" s="63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
@@ -10845,7 +11306,7 @@
     <row r="60" spans="1:9" ht="14.25">
       <c r="A60" s="29"/>
       <c r="B60" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60" s="63"/>
       <c r="E60" s="63"/>
@@ -10857,7 +11318,7 @@
     <row r="61" spans="1:9" ht="14.25">
       <c r="A61" s="29"/>
       <c r="B61" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
@@ -10924,25 +11385,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="G49:I49"/>
@@ -10953,6 +11395,25 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -10968,7 +11429,7 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -10997,13 +11458,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -11016,13 +11477,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -11035,13 +11496,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -11056,13 +11517,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -11073,13 +11534,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -11091,7 +11552,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -11102,7 +11563,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -11254,241 +11715,241 @@
     </row>
     <row r="42" spans="1:9" ht="23.25" customHeight="1">
       <c r="A42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="C42" s="111"/>
+      <c r="D42" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="111"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+        <v>54</v>
+      </c>
+      <c r="G43" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="114"/>
+      <c r="D44" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="117"/>
+      <c r="F44" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="117"/>
       <c r="F45" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+        <v>54</v>
+      </c>
+      <c r="G45" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="59"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="59"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="42"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="111"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="59"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="59"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="117"/>
       <c r="F52" s="59"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="111"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="117"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="117"/>
       <c r="F53" s="59"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="111"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="117"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="42"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="117"/>
       <c r="F54" s="59"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="111"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="117"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="42"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="117"/>
       <c r="F55" s="59"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="111"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="117"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="42"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="117"/>
       <c r="F56" s="59"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="111"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="117"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="42"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="59"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="111"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="117"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="42"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="111"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="54"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="111"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="117"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="42"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="111"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="117"/>
       <c r="F59" s="54"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="111"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="117"/>
     </row>
     <row r="60" spans="1:9" s="55" customFormat="1" ht="14.25" customHeight="1">
       <c r="A60" s="42"/>
@@ -11503,18 +11964,18 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="42"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="111"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="117"/>
       <c r="F61" s="59"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="111"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="117"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="108"/>
       <c r="C62" s="108"/>
@@ -11542,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
@@ -11555,10 +12016,10 @@
     </row>
     <row r="67" spans="1:11" ht="14.25">
       <c r="B67" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
@@ -11580,7 +12041,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
@@ -11593,7 +12054,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25">
       <c r="B70" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
@@ -11607,7 +12068,7 @@
     </row>
     <row r="71" spans="1:11" ht="14.25">
       <c r="B71" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
@@ -11621,7 +12082,7 @@
     </row>
     <row r="72" spans="1:11" ht="14.25">
       <c r="B72" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C72" s="63"/>
       <c r="D72" s="63"/>
@@ -11647,7 +12108,7 @@
     </row>
     <row r="74" spans="1:11" ht="14.25">
       <c r="B74" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C74" s="63"/>
       <c r="D74" s="63"/>
@@ -11661,7 +12122,7 @@
     </row>
     <row r="75" spans="1:11" ht="14.25">
       <c r="B75" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C75" s="63"/>
       <c r="D75" s="63"/>
@@ -11710,6 +12171,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="C6:G6"/>
@@ -11726,57 +12238,6 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11821,13 +12282,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -11840,13 +12301,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -11859,13 +12320,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -11880,13 +12341,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -11897,13 +12358,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -11915,7 +12376,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -11926,7 +12387,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -12069,175 +12530,175 @@
     </row>
     <row r="38" spans="1:9" ht="23.25" customHeight="1">
       <c r="A38" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="C38" s="111"/>
+      <c r="D38" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="115"/>
-      <c r="I38" s="114"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="114"/>
+      <c r="D39" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="111"/>
+      <c r="E39" s="117"/>
       <c r="F39" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="111"/>
+        <v>54</v>
+      </c>
+      <c r="G39" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="118"/>
+      <c r="I39" s="117"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="114"/>
+      <c r="D40" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="117"/>
+      <c r="F40" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="111"/>
-      <c r="F40" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="110" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="112"/>
-      <c r="I40" s="111"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="117"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="105"/>
+        <v>51</v>
+      </c>
+      <c r="B41" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="114"/>
       <c r="D41" s="124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="125"/>
       <c r="F41" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="111"/>
+        <v>54</v>
+      </c>
+      <c r="G41" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="118"/>
+      <c r="I41" s="117"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="106"/>
+        <v>56</v>
+      </c>
+      <c r="B42" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="115"/>
       <c r="D42" s="62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E42" s="66"/>
       <c r="F42" s="67"/>
-      <c r="G42" s="112" t="s">
-        <v>89</v>
-      </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="G42" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="118"/>
+      <c r="I42" s="117"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="126" t="s">
         <v>90</v>
-      </c>
-      <c r="B43" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="126" t="s">
-        <v>92</v>
       </c>
       <c r="E43" s="127"/>
       <c r="F43" s="69">
         <v>7</v>
       </c>
-      <c r="G43" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+      <c r="G43" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="111"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="59"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
       <c r="F45" s="54"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="54"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="59"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" s="108"/>
       <c r="C48" s="108"/>
@@ -12266,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D52" s="63"/>
       <c r="E52" s="63"/>
@@ -12278,7 +12739,7 @@
     <row r="53" spans="1:9" ht="14.25">
       <c r="A53" s="29"/>
       <c r="B53" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
@@ -12294,7 +12755,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
@@ -12306,7 +12767,7 @@
     <row r="55" spans="1:9" ht="14.25">
       <c r="A55" s="29"/>
       <c r="B55" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
@@ -12319,7 +12780,7 @@
     <row r="56" spans="1:9" ht="14.25">
       <c r="A56" s="29"/>
       <c r="B56" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
@@ -12332,7 +12793,7 @@
     <row r="57" spans="1:9" ht="14.25">
       <c r="A57" s="29"/>
       <c r="B57" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
@@ -12356,7 +12817,7 @@
     <row r="59" spans="1:9" ht="14.25">
       <c r="A59" s="29"/>
       <c r="B59" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="63"/>
       <c r="D59" s="63"/>
@@ -12419,21 +12880,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B38:C38"/>
@@ -12450,11 +12901,21 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="G40:I40"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12499,13 +12960,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -12518,13 +12979,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -12537,13 +12998,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -12558,13 +13019,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -12575,13 +13036,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -12593,7 +13054,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -12604,7 +13065,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -12763,167 +13224,167 @@
     </row>
     <row r="42" spans="1:9" ht="23.25" customHeight="1">
       <c r="A42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="C42" s="111"/>
+      <c r="D42" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="117"/>
+      <c r="F43" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="111"/>
-      <c r="F43" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="111"/>
+        <v>47</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="114"/>
+      <c r="D44" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="117"/>
       <c r="F44" s="59">
         <v>20</v>
       </c>
-      <c r="G44" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+      <c r="G44" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="111"/>
+        <v>51</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="117"/>
       <c r="F45" s="61">
         <v>8</v>
       </c>
-      <c r="G45" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+      <c r="G45" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="111"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+        <v>54</v>
+      </c>
+      <c r="G46" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="111"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" s="108"/>
       <c r="C52" s="108"/>
@@ -12952,7 +13413,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -12966,7 +13427,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -13047,12 +13508,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -13065,25 +13539,12 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13128,18 +13589,18 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13147,13 +13608,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -13166,13 +13627,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -13187,13 +13648,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -13204,13 +13665,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -13222,7 +13683,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -13233,7 +13694,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -13392,157 +13853,157 @@
     </row>
     <row r="42" spans="1:9" ht="23.25" customHeight="1">
       <c r="A42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="C42" s="111"/>
+      <c r="D42" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="111"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="117"/>
+      <c r="D43" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="117"/>
       <c r="F43" s="54">
         <v>2</v>
       </c>
-      <c r="G43" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+      <c r="G43" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" spans="1:9" ht="12.95" customHeight="1">
       <c r="A44" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="114"/>
+      <c r="D44" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="111"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+        <v>54</v>
+      </c>
+      <c r="G44" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="117"/>
       <c r="F45" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+        <v>54</v>
+      </c>
+      <c r="G45" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="56"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="111"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" s="108"/>
       <c r="C52" s="108"/>
@@ -13571,7 +14032,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -13585,7 +14046,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -13666,12 +14127,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -13684,25 +14158,12 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13745,7 +14206,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="128" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
@@ -13762,7 +14223,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="129"/>
       <c r="E3" s="129"/>
@@ -13797,11 +14258,11 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -13812,11 +14273,11 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -13837,7 +14298,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -13995,161 +14456,161 @@
       <c r="I41" s="33"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="A42" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>42</v>
       </c>
       <c r="H43" s="37"/>
       <c r="I43" s="36"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="114"/>
       <c r="F44" s="43"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="105"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="114"/>
       <c r="F45" s="43"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="105"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="105"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="114"/>
       <c r="F46" s="43"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="105"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="114"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="105"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="114"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="114"/>
       <c r="F48" s="43"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="105"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="114"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="43"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="105"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="105"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="43"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="105"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="105"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="105"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="105"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="114"/>
       <c r="F52" s="43"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="105"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="114"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="105"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="114"/>
       <c r="F53" s="43"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="105"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="114"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="113" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="114"/>
+      <c r="A54" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="29"/>
@@ -14256,6 +14717,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -14272,29 +14756,6 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G51:I51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14313,6 +14774,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -14484,16 +14955,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F144B723-4FB8-4D6B-A48E-1AAAF7964110}">
   <ds:schemaRefs>
@@ -14503,6 +14964,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BD6BD65-EF1D-4BC1-8F21-A284A077EF6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14518,14 +14989,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面レイアウト.xlsx
+++ b/02_画面設計書・モックアップ/画面レイアウト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1ED1B-EBAC-460E-809E-404171EA675A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7000E1-6AC8-4A4C-94C2-248D67CF1026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" tabRatio="784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="129">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -433,9 +433,6 @@
     <t>パスワードを入力する</t>
   </si>
   <si>
-    <t>ログインのボタンを押下すると、ログイン処理を行い商品一覧画面</t>
-  </si>
-  <si>
     <t>へ遷移する</t>
   </si>
   <si>
@@ -721,6 +718,37 @@
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>掲示板FuJi</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインのボタンを押下すると、ログイン処理を行いチャット画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを忘れた方はこちらのボタンを押すとパスワード変更画面へ遷移する</t>
+    <rPh sb="6" eb="7">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録のボタンを押すと新規登録画面へ遷移する</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1256,27 +1284,6 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1331,14 +1338,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1348,6 +1376,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1359,22 +1396,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9074,16 +9102,16 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="91" t="s">
+      <c r="Q3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="88"/>
-      <c r="S3" s="86">
+      <c r="R3" s="81"/>
+      <c r="S3" s="79">
         <v>45042</v>
       </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="88"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="81"/>
       <c r="W3" s="17"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -9178,14 +9206,14 @@
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
@@ -9203,66 +9231,66 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="94"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="91" t="s">
+      <c r="Q8" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="88"/>
-      <c r="S8" s="91" t="s">
+      <c r="R8" s="81"/>
+      <c r="S8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="88"/>
-      <c r="U8" s="91" t="s">
+      <c r="T8" s="81"/>
+      <c r="U8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="88"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="17"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="97"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="79" t="s">
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="80"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="15"/>
       <c r="X9" s="47"/>
       <c r="Y9" s="2"/>
@@ -9284,12 +9312,12 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="82"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="15"/>
       <c r="X10" s="47"/>
       <c r="Y10" s="2"/>
@@ -9311,12 +9339,12 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="84"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
       <c r="W11" s="15"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="8"/>
@@ -9401,81 +9429,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="11"/>
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
       <c r="W16" s="11"/>
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
       <c r="W17" s="11"/>
       <c r="X17" s="2"/>
     </row>
@@ -10643,6 +10671,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
+    <mergeCell ref="Q9:R11"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="B15:V17"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E8:N9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:S53"/>
+    <mergeCell ref="T53:V53"/>
     <mergeCell ref="T57:V57"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="H41:S41"/>
@@ -10659,78 +10759,6 @@
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="H54:S54"/>
     <mergeCell ref="T55:V55"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E8:N9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="H39:S39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="Q9:R11"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="B15:V17"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="S9:T11"/>
-    <mergeCell ref="U9:V11"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10747,8 +10775,8 @@
   </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="99" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -10776,18 +10804,18 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10795,13 +10823,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -10814,13 +10842,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -10835,13 +10863,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -10852,13 +10880,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -10870,7 +10898,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -11056,10 +11084,10 @@
       <c r="A43" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="111"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="35" t="s">
         <v>39</v>
       </c>
@@ -11067,127 +11095,127 @@
       <c r="F43" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="114"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="113" t="s">
+      <c r="C44" s="105"/>
+      <c r="D44" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="114"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="113" t="s">
+      <c r="G44" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H44" s="115"/>
-      <c r="I44" s="114"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="105"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="113" t="s">
+      <c r="C45" s="105"/>
+      <c r="D45" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="114"/>
+      <c r="E45" s="105"/>
       <c r="F45" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="113" t="s">
+      <c r="G45" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="115"/>
-      <c r="I45" s="114"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="105"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="113" t="s">
+      <c r="C46" s="105"/>
+      <c r="D46" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="114"/>
+      <c r="E46" s="105"/>
       <c r="F46" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="113" t="s">
+      <c r="G46" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="115"/>
-      <c r="I46" s="114"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="105"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="117"/>
+      <c r="B47" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="105"/>
+      <c r="D47" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="111"/>
       <c r="F47" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="G47" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="113" t="s">
+      <c r="E48" s="105"/>
+      <c r="F48" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="114"/>
-      <c r="F48" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="G48" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="H48" s="115"/>
-      <c r="I48" s="114"/>
+      <c r="G48" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="106"/>
+      <c r="I48" s="105"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="53"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
       <c r="F49" s="53"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="114"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="105"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="107" t="s">
@@ -11272,7 +11300,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="D57" s="63"/>
       <c r="E57" s="63"/>
@@ -11284,7 +11312,7 @@
     <row r="58" spans="1:9" ht="14.25">
       <c r="A58" s="29"/>
       <c r="C58" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
@@ -11295,7 +11323,12 @@
     </row>
     <row r="59" spans="1:9" ht="14.25">
       <c r="A59" s="29"/>
-      <c r="B59" s="63"/>
+      <c r="B59" s="63">
+        <v>4</v>
+      </c>
+      <c r="C59" s="63" t="s">
+        <v>127</v>
+      </c>
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="63"/>
@@ -11305,9 +11338,8 @@
     </row>
     <row r="60" spans="1:9" ht="14.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="63" t="s">
-        <v>61</v>
-      </c>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="63"/>
       <c r="E60" s="63"/>
       <c r="F60" s="63"/>
@@ -11317,10 +11349,12 @@
     </row>
     <row r="61" spans="1:9" ht="14.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="63"/>
+      <c r="B61" s="63">
+        <v>5</v>
+      </c>
+      <c r="C61" s="63" t="s">
+        <v>128</v>
+      </c>
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="F61" s="63"/>
@@ -11385,6 +11419,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="G49:I49"/>
@@ -11395,25 +11448,6 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -11458,13 +11492,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -11477,13 +11511,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -11496,13 +11530,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -11517,13 +11551,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -11534,13 +11568,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="C6" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -11552,7 +11586,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -11717,10 +11751,10 @@
       <c r="A42" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="35" t="s">
         <v>39</v>
       </c>
@@ -11728,228 +11762,228 @@
       <c r="F42" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="116" t="s">
+      <c r="C43" s="105"/>
+      <c r="D43" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="117"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
+      <c r="G43" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="105"/>
+      <c r="D44" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="117"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="117"/>
+      <c r="G44" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="112"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="117"/>
+      <c r="B45" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="105"/>
+      <c r="D45" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="111"/>
       <c r="F45" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
+      <c r="G45" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="112"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="59"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="117"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="59"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="42"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="117"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="117"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="111"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="59"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="117"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="117"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="59"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="117"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="117"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="59"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="117"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="111"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="117"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="59"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="117"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="42"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="117"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="59"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="117"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="42"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="117"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="59"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="118"/>
-      <c r="I55" s="117"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="111"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="42"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="117"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="59"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="117"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="42"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="117"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="59"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="117"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="111"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="42"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="111"/>
       <c r="F58" s="54"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="117"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="111"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="42"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="117"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="111"/>
       <c r="F59" s="54"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="117"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="111"/>
     </row>
     <row r="60" spans="1:9" s="55" customFormat="1" ht="14.25" customHeight="1">
       <c r="A60" s="42"/>
@@ -11964,14 +11998,14 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="42"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="117"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="111"/>
       <c r="F61" s="59"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="117"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="111"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="107" t="s">
@@ -12003,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
@@ -12019,7 +12053,7 @@
         <v>61</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
@@ -12041,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
@@ -12171,6 +12205,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="B56:C56"/>
@@ -12187,57 +12272,6 @@
     <mergeCell ref="G49:I49"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12282,13 +12316,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -12301,13 +12335,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -12320,13 +12354,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -12341,13 +12375,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -12358,13 +12392,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="C6" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -12376,7 +12410,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -12532,10 +12566,10 @@
       <c r="A38" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="111"/>
+      <c r="C38" s="114"/>
       <c r="D38" s="35" t="s">
         <v>39</v>
       </c>
@@ -12543,62 +12577,62 @@
       <c r="F38" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="110" t="s">
+      <c r="G38" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="112"/>
-      <c r="I38" s="111"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="114"/>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="116" t="s">
+      <c r="C39" s="105"/>
+      <c r="D39" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="117"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="118"/>
-      <c r="I39" s="117"/>
+      <c r="G39" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="112"/>
+      <c r="I39" s="111"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="117"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="118"/>
-      <c r="I40" s="117"/>
+      <c r="G40" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="112"/>
+      <c r="I40" s="111"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="114"/>
+      <c r="B41" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="105"/>
       <c r="D41" s="124" t="s">
         <v>58</v>
       </c>
@@ -12606,95 +12640,95 @@
       <c r="F41" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="118"/>
-      <c r="I41" s="117"/>
+      <c r="G41" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="112"/>
+      <c r="I41" s="111"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="106"/>
+      <c r="D42" s="62" t="s">
         <v>85</v>
-      </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="62" t="s">
-        <v>86</v>
       </c>
       <c r="E42" s="66"/>
       <c r="F42" s="67"/>
-      <c r="G42" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="118"/>
-      <c r="I42" s="117"/>
+      <c r="G42" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="C43" s="105"/>
+      <c r="D43" s="126" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="126" t="s">
-        <v>90</v>
       </c>
       <c r="E43" s="127"/>
       <c r="F43" s="69">
         <v>7</v>
       </c>
-      <c r="G43" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
+      <c r="G43" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="117"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="59"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="117"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="117"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="54"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="54"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="117"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="59"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="107" t="s">
@@ -12727,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="63"/>
       <c r="E52" s="63"/>
@@ -12755,7 +12789,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
@@ -12880,11 +12914,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B38:C38"/>
@@ -12901,21 +12945,11 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="G40:I40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12960,13 +12994,13 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
@@ -12979,13 +13013,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -12998,13 +13032,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -13019,13 +13053,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -13036,13 +13070,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="C6" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -13054,7 +13088,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -13226,10 +13260,10 @@
       <c r="A42" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="35" t="s">
         <v>39</v>
       </c>
@@ -13237,150 +13271,150 @@
       <c r="F42" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="105"/>
+      <c r="D43" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="111"/>
+      <c r="F43" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="117"/>
-      <c r="F43" s="56" t="s">
+      <c r="G43" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="116" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="116" t="s">
+      <c r="B44" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="105"/>
+      <c r="D44" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="117"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="59">
         <v>20</v>
       </c>
-      <c r="G44" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="117"/>
+      <c r="G44" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="112"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="117"/>
+      <c r="B45" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="105"/>
+      <c r="D45" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="111"/>
       <c r="F45" s="61">
         <v>8</v>
       </c>
-      <c r="G45" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
+      <c r="G45" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="112"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="116" t="s">
+      <c r="C46" s="105"/>
+      <c r="D46" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="117"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="118"/>
-      <c r="I46" s="117"/>
+      <c r="G46" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="112"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="117"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="117"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="111"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="117"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="117"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="117"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
@@ -13413,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -13427,7 +13461,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -13508,25 +13542,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -13539,12 +13560,25 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13589,18 +13623,18 @@
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13608,13 +13642,13 @@
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
@@ -13627,13 +13661,13 @@
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -13648,13 +13682,13 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -13665,13 +13699,13 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="C6" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -13683,7 +13717,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -13855,10 +13889,10 @@
       <c r="A42" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="35" t="s">
         <v>39</v>
       </c>
@@ -13866,140 +13900,140 @@
       <c r="F42" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="117"/>
-      <c r="D43" s="116" t="s">
+      <c r="B43" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="111"/>
+      <c r="D43" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="117"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="54">
         <v>2</v>
       </c>
-      <c r="G43" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
+      <c r="G43" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9" ht="12.95" customHeight="1">
       <c r="A44" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="116" t="s">
+      <c r="C44" s="105"/>
+      <c r="D44" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="117"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="117"/>
+      <c r="G44" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="112"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="117"/>
+      <c r="B45" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="105"/>
+      <c r="D45" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="111"/>
       <c r="F45" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
+      <c r="G45" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="112"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="56"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="117"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="117"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="117"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="111"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="117"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="117"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="117"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="111"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
@@ -14032,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -14046,7 +14080,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -14127,25 +14161,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -14158,12 +14179,25 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14206,7 +14240,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
@@ -14223,7 +14257,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="129"/>
       <c r="E3" s="129"/>
@@ -14258,11 +14292,11 @@
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
@@ -14273,11 +14307,11 @@
       <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
@@ -14456,17 +14490,17 @@
       <c r="I41" s="33"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
@@ -14491,126 +14525,126 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="114"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="43"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="114"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="105"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="114"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="105"/>
       <c r="F45" s="43"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="114"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="105"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="114"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="105"/>
       <c r="F46" s="43"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="114"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="105"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="114"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="114"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="105"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="114"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="105"/>
       <c r="F48" s="43"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="114"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="105"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
       <c r="F49" s="43"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="114"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="105"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="114"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="105"/>
       <c r="F50" s="43"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="114"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="105"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="114"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="105"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="114"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="105"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="114"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="105"/>
       <c r="F52" s="43"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="114"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="105"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="114"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="105"/>
       <c r="F53" s="43"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="114"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="105"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="110" t="s">
+      <c r="A54" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="111"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="114"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="29"/>
@@ -14717,29 +14751,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B50:C50"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -14756,6 +14767,29 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G51:I51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14774,16 +14808,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -14955,6 +14979,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F144B723-4FB8-4D6B-A48E-1AAAF7964110}">
   <ds:schemaRefs>
@@ -14964,16 +14998,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BD6BD65-EF1D-4BC1-8F21-A284A077EF6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14989,4 +15013,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面レイアウト.xlsx
+++ b/02_画面設計書・モックアップ/画面レイアウト.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7000E1-6AC8-4A4C-94C2-248D67CF1026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C590A9C9-4B34-4C81-B453-4DAFFC27EB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" tabRatio="784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" tabRatio="784" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
     <sheet name="ログイン画面" sheetId="16" r:id="rId2"/>
-    <sheet name="商品一覧画面" sheetId="17" r:id="rId3"/>
-    <sheet name="商品詳細画面" sheetId="18" r:id="rId4"/>
+    <sheet name="新規登録画面" sheetId="18" r:id="rId3"/>
+    <sheet name="チャット画面" sheetId="17" r:id="rId4"/>
     <sheet name="カート画面" sheetId="22" r:id="rId5"/>
     <sheet name="注文確定画面" sheetId="23" r:id="rId6"/>
     <sheet name="画面レイアウト(サンプル）" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">カート画面!$A$1:$I$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">チャット画面!$A$1:$I$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ログイン画面!$A$1:$I$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'画面レイアウト(サンプル）'!$A$1:$I$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">商品一覧画面!$A$1:$I$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">商品詳細画面!$A$1:$I$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">新規登録画面!$A$1:$I$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">注文確定画面!$A$1:$I$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="131">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -160,16 +160,6 @@
   </si>
   <si>
     <t>v1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>販売サイト画面　新規作成</t>
-    <rPh sb="0" eb="2">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -487,22 +477,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>商品詳細画面</t>
-  </si>
-  <si>
-    <t>ゲーミングデバイスの販売サイト の商品詳細画面を示す</t>
-    <rPh sb="17" eb="19">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>カート</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -721,13 +695,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>掲示板FuJi</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ログインのボタンを押下すると、ログイン処理を行いチャット画面</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -749,6 +716,57 @@
   </si>
   <si>
     <t>新規登録のボタンを押すと新規登録画面へ遷移する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>掲示板 　システム設計書</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レイアウト新規作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>藤元</t>
+    <rPh sb="0" eb="2">
+      <t>フジモト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>掲示板FuJi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>掲示板でユーザー情報を新規登録する画面のレイアウトを示す</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シメ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1284,6 +1302,27 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,35 +1377,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1376,15 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1396,13 +1405,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3101,6 +3119,1950 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>757518</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBDC0F4-B3E2-45A7-A1DE-97E3197BB910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="56030" y="1397234"/>
+          <a:ext cx="8590429" cy="4832116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>713254</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769D3A80-C3FB-4FA1-9FEB-40EBC00B105B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D353790E-EB13-A137-5CBE-BCE486054DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3671607" y="4381500"/>
+          <a:ext cx="1371039" cy="324970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144744</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120277</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075B8CBF-2088-4A21-8CEF-62DC55419DB5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{769D3A80-C3FB-4FA1-9FEB-40EBC00B105B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5075332" y="4341533"/>
+          <a:ext cx="512856" cy="149038"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568884</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>154266</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>150532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850AFFF4-79A6-4C73-B987-5F49BC800211}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{075B8CBF-2088-4A21-8CEF-62DC55419DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499472" y="2915024"/>
+          <a:ext cx="571500" cy="597273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589804</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>113553</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33B870A-DA10-40CA-A148-52885A4FC512}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{850AFFF4-79A6-4C73-B987-5F49BC800211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5520392" y="3239245"/>
+          <a:ext cx="509867" cy="609227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>951752</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>453464</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB0A452-7FC1-4F4A-86A8-27D7370CF2E9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C33B870A-DA10-40CA-A148-52885A4FC512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5882340" y="3757145"/>
+          <a:ext cx="487830" cy="596340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475129</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8BDF94-60AC-4479-AD81-BCF210C096F8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9BB0A452-7FC1-4F4A-86A8-27D7370CF2E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9838764" y="1075765"/>
+          <a:ext cx="2200836" cy="1165972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434228</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F72CAB9-7760-4432-BDBD-63F815244DC5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3F8BDF94-60AC-4479-AD81-BCF210C096F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10320617" y="3092823"/>
+          <a:ext cx="2350435" cy="994521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>443752</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409014</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52245EA-2A16-45C3-8956-725712707F0D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5F72CAB9-7760-4432-BDBD-63F815244DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9318811" y="5130053"/>
+          <a:ext cx="1309968" cy="355227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508559</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD08139-9176-4BC0-BA7D-CC2D0E281EF3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F50F71F5-54EB-48F0-8881-AC128CC82831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3466912" y="3160059"/>
+          <a:ext cx="1553324" cy="246531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>162860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>664509</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BACB8C-AC16-4C41-BC67-338D8699C389}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3CD08139-9176-4BC0-BA7D-CC2D0E281EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5093448" y="3565898"/>
+          <a:ext cx="501649" cy="196663"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>86286</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647514</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B4ACC6-3F3F-402A-A384-18FD3AD2363F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B7BACB8C-AC16-4C41-BC67-338D8699C389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5016874" y="3254189"/>
+          <a:ext cx="561228" cy="45010"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>570567</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>70036</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30729BB-3F0A-4E2E-992D-C8C42A5C2ABF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E7DF37BC-A70C-4A89-B771-B7C1904E1E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5501155" y="4141880"/>
+          <a:ext cx="485587" cy="358589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>189754</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565897</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA83D24C-330F-4257-8854-B64C2D2FC412}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D30729BB-3F0A-4E2E-992D-C8C42A5C2ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7123954" y="5360521"/>
+          <a:ext cx="376143" cy="343834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>188260</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6731DB-46FB-4D90-9767-77EACCC941BA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4BF8B38B-C777-45C2-9EF9-4AC0A7B10C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5118848" y="4043830"/>
+          <a:ext cx="820270" cy="12699"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>492872</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>73961</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>73960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DEE6D8D-16B5-493D-9D77-DCF42310D952}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F50F71F5-54EB-48F0-8881-AC128CC82831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3451225" y="3525370"/>
+          <a:ext cx="1553324" cy="246531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>481665</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>29136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62754</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7119E61F-082E-4114-824A-4C0B620D9172}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F50F71F5-54EB-48F0-8881-AC128CC82831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3440018" y="3895165"/>
+          <a:ext cx="1553324" cy="246531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -3924,1726 +5886,6 @@
         <a:xfrm>
           <a:off x="9990604" y="2917452"/>
           <a:ext cx="571500" cy="586628"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="図 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D353790E-EB13-A137-5CBE-BCE486054DE6}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2F6731DB-46FB-4D90-9767-77EACCC941BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="1409700"/>
-          <a:ext cx="5848350" cy="4143375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769D3A80-C3FB-4FA1-9FEB-40EBC00B105B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D353790E-EB13-A137-5CBE-BCE486054DE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1266825" y="1400175"/>
-          <a:ext cx="933450" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>637802</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>94503</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>164540</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>75453</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075B8CBF-2088-4A21-8CEF-62DC55419DB5}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{769D3A80-C3FB-4FA1-9FEB-40EBC00B105B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="637802" y="1875678"/>
-          <a:ext cx="517338" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>131854</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>703354</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>105709</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850AFFF4-79A6-4C73-B987-5F49BC800211}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{075B8CBF-2088-4A21-8CEF-62DC55419DB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="131854" y="1793875"/>
-          <a:ext cx="571500" cy="578784"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>589804</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>23157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>113554</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>128119</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33B870A-DA10-40CA-A148-52885A4FC512}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{850AFFF4-79A6-4C73-B987-5F49BC800211}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7524004" y="1318557"/>
-          <a:ext cx="514350" cy="590737"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581958</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>81616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>83670</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>5603</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB0A452-7FC1-4F4A-86A8-27D7370CF2E9}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C33B870A-DA10-40CA-A148-52885A4FC512}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581958" y="2672416"/>
-          <a:ext cx="492312" cy="571687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="四角形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8BDF94-60AC-4479-AD81-BCF210C096F8}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9BB0A452-7FC1-4F4A-86A8-27D7370CF2E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724400" y="2200275"/>
-          <a:ext cx="2438400" cy="2619375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="四角形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F72CAB9-7760-4432-BDBD-63F815244DC5}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3F8BDF94-60AC-4479-AD81-BCF210C096F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2190750" y="2009775"/>
-          <a:ext cx="2486025" cy="2505075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52245EA-2A16-45C3-8956-725712707F0D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5F72CAB9-7760-4432-BDBD-63F815244DC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105400" y="5095875"/>
-          <a:ext cx="1314450" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>149971</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>183963</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>94503</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD08139-9176-4BC0-BA7D-CC2D0E281EF3}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F50F71F5-54EB-48F0-8881-AC128CC82831}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6093571" y="1482352"/>
-          <a:ext cx="1024592" cy="393326"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>241301</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>13633</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42208</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BACB8C-AC16-4C41-BC67-338D8699C389}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3CD08139-9176-4BC0-BA7D-CC2D0E281EF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7175501" y="2442508"/>
-          <a:ext cx="501649" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>175932</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>150159</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>737160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>27081</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B4ACC6-3F3F-402A-A384-18FD3AD2363F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B7BACB8C-AC16-4C41-BC67-338D8699C389}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7110132" y="1607484"/>
-          <a:ext cx="561228" cy="38847"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>512856</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>118968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>217394</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>116915</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82DA1785-D588-46B3-8391-359C8E7D0DBE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C9B4ACC6-3F3F-402A-A384-18FD3AD2363F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456456" y="5300568"/>
-          <a:ext cx="695138" cy="159872"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>738654</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>74145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>96557</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30729BB-3F0A-4E2E-992D-C8C42A5C2ABF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E7DF37BC-A70C-4A89-B771-B7C1904E1E73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7672854" y="2179170"/>
-          <a:ext cx="490070" cy="346262"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>④</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>189754</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>16996</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>565897</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>36980</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="四角形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA83D24C-330F-4257-8854-B64C2D2FC412}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D30729BB-3F0A-4E2E-992D-C8C42A5C2ABF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7123954" y="5360521"/>
-          <a:ext cx="376143" cy="343834"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>⑤</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>20170</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>96371</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>248397</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144182</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6731DB-46FB-4D90-9767-77EACCC941BA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4BF8B38B-C777-45C2-9EF9-4AC0A7B10C69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1010770" y="2525246"/>
-          <a:ext cx="1218827" cy="371661"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="図 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C754860E-F71C-32A8-4885-F79C55C7EDF7}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2F6731DB-46FB-4D90-9767-77EACCC941BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="4676775"/>
-          <a:ext cx="1381125" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8876,8 +9118,8 @@
   </sheetPr>
   <dimension ref="A1:FL61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:V3"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41:V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -9102,16 +9344,16 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="81"/>
-      <c r="S3" s="79">
+      <c r="R3" s="88"/>
+      <c r="S3" s="86">
         <v>45042</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="81"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="88"/>
       <c r="W3" s="17"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -9206,14 +9448,14 @@
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
@@ -9231,66 +9473,66 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="84" t="s">
+      <c r="Q8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="81"/>
-      <c r="S8" s="84" t="s">
+      <c r="R8" s="88"/>
+      <c r="S8" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="81"/>
-      <c r="U8" s="84" t="s">
+      <c r="T8" s="88"/>
+      <c r="U8" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="81"/>
+      <c r="V8" s="88"/>
       <c r="W8" s="17"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="97" t="s">
+      <c r="Q9" s="79"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="98"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="15"/>
       <c r="X9" s="47"/>
       <c r="Y9" s="2"/>
@@ -9312,12 +9554,12 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="100"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="15"/>
       <c r="X10" s="47"/>
       <c r="Y10" s="2"/>
@@ -9339,12 +9581,12 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="15"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="8"/>
@@ -9429,81 +9671,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="11"/>
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="11"/>
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="11"/>
       <c r="X17" s="2"/>
     </row>
@@ -10097,12 +10339,12 @@
       <c r="C40" s="71"/>
       <c r="D40" s="72"/>
       <c r="E40" s="76">
-        <v>44830</v>
+        <v>45042</v>
       </c>
       <c r="F40" s="77"/>
       <c r="G40" s="78"/>
       <c r="H40" s="73" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="I40" s="74"/>
       <c r="J40" s="74"/>
@@ -10116,7 +10358,7 @@
       <c r="R40" s="74"/>
       <c r="S40" s="75"/>
       <c r="T40" s="70" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="U40" s="71"/>
       <c r="V40" s="72"/>
@@ -10671,25 +10913,59 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="Q9:R11"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="B15:V17"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="S9:T11"/>
-    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:S55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:S57"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
     <mergeCell ref="H45:S45"/>
     <mergeCell ref="T45:V45"/>
     <mergeCell ref="B45:D45"/>
@@ -10706,59 +10982,25 @@
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="H39:S39"/>
     <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="H41:S41"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:S55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:S57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
-    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="Q9:R11"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="B15:V17"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10775,8 +11017,8 @@
   </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="99" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView zoomScale="99" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -10786,7 +11028,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -10799,39 +11041,39 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="I2" s="40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21"/>
       <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="25" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="41">
         <v>45042</v>
@@ -10840,15 +11082,15 @@
     <row r="4" spans="1:9">
       <c r="A4" s="21"/>
       <c r="B4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -10858,47 +11100,47 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="23"/>
       <c r="B6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="24"/>
       <c r="B7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -10909,7 +11151,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -11069,7 +11311,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="108"/>
       <c r="C42" s="108"/>
@@ -11082,144 +11324,144 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="C43" s="111"/>
+      <c r="D43" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="115"/>
-      <c r="I43" s="114"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="104" t="s">
+      <c r="E44" s="114"/>
+      <c r="F44" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="53" t="s">
+      <c r="G44" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="106"/>
-      <c r="I44" s="105"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="C45" s="114"/>
+      <c r="D45" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="114"/>
+      <c r="F45" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="105"/>
-      <c r="F45" s="53" t="s">
+      <c r="G45" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="105"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="104" t="s">
+      <c r="E46" s="114"/>
+      <c r="F46" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="105"/>
-      <c r="F46" s="42" t="s">
+      <c r="G46" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="105"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="111"/>
+        <v>55</v>
+      </c>
+      <c r="B47" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="117"/>
       <c r="F47" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+        <v>53</v>
+      </c>
+      <c r="G47" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="114"/>
+      <c r="D48" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="104" t="s">
+      <c r="E48" s="114"/>
+      <c r="F48" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="105"/>
-      <c r="F48" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="106"/>
-      <c r="I48" s="105"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="114"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="53"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="53"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="105"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="108"/>
       <c r="C50" s="108"/>
@@ -11244,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
@@ -11256,7 +11498,7 @@
     <row r="54" spans="1:9" ht="14.25">
       <c r="A54" s="29"/>
       <c r="B54" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
@@ -11272,7 +11514,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
@@ -11284,7 +11526,7 @@
     <row r="56" spans="1:9" ht="14.25">
       <c r="A56" s="29"/>
       <c r="B56" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
@@ -11300,7 +11542,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D57" s="63"/>
       <c r="E57" s="63"/>
@@ -11312,7 +11554,7 @@
     <row r="58" spans="1:9" ht="14.25">
       <c r="A58" s="29"/>
       <c r="C58" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
@@ -11327,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
@@ -11353,7 +11595,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
@@ -11419,25 +11661,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="G49:I49"/>
@@ -11448,6 +11671,25 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -11457,6 +11699,684 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="21"/>
+      <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="41">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="21"/>
+      <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="24"/>
+      <c r="B7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="29"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="29"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="29"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="29"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="29"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="29"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="29"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="29"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="29"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="29"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="29"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="29"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="29"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="29"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="29"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="29"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="29"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="29"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="29"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="29"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="29"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="29"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="29"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="29"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="29"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A38" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="111"/>
+      <c r="D38" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="112"/>
+      <c r="I38" s="111"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A39" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="114"/>
+      <c r="D39" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="117"/>
+      <c r="F39" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="118"/>
+      <c r="I39" s="117"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="114"/>
+      <c r="D40" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="117"/>
+      <c r="F40" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="118"/>
+      <c r="I40" s="117"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="114"/>
+      <c r="D41" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="125"/>
+      <c r="F41" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="118"/>
+      <c r="I41" s="117"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="115"/>
+      <c r="D42" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="118"/>
+      <c r="I42" s="117"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="127"/>
+      <c r="F43" s="69">
+        <v>7</v>
+      </c>
+      <c r="G43" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="42"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="42"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="42"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="42"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="109"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="29"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="29"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="29"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="63">
+        <v>1</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="63">
+        <v>2</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.25">
+      <c r="A57" s="29"/>
+      <c r="B57" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="29"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="29"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="29"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="29"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="29"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="29"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="29"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="29"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="29"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="29"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="31"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11474,7 +12394,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -11487,20 +12407,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="40" t="s">
         <v>10</v>
@@ -11509,17 +12429,17 @@
     <row r="3" spans="1:9">
       <c r="A3" s="21"/>
       <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="25" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="41">
         <v>44830</v>
@@ -11528,15 +12448,15 @@
     <row r="4" spans="1:9">
       <c r="A4" s="21"/>
       <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -11546,47 +12466,47 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="23"/>
       <c r="B6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="24"/>
       <c r="B7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -11597,7 +12517,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -11749,241 +12669,241 @@
     </row>
     <row r="42" spans="1:9" ht="23.25" customHeight="1">
       <c r="A42" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="C42" s="111"/>
+      <c r="D42" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="111"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+        <v>53</v>
+      </c>
+      <c r="G43" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="114"/>
+      <c r="D44" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110" t="s">
+      <c r="E44" s="117"/>
+      <c r="F44" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="117"/>
+      <c r="F45" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="111"/>
-      <c r="F45" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="59"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="59"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="42"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="111"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="59"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="59"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="117"/>
       <c r="F52" s="59"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="111"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="117"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="117"/>
       <c r="F53" s="59"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="111"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="117"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="42"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="117"/>
       <c r="F54" s="59"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="111"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="117"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="42"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="117"/>
       <c r="F55" s="59"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="111"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="117"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="42"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="117"/>
       <c r="F56" s="59"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="111"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="117"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="42"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="59"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="111"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="117"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="42"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="111"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="54"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="111"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="117"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="42"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="111"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="117"/>
       <c r="F59" s="54"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="111"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="117"/>
     </row>
     <row r="60" spans="1:9" s="55" customFormat="1" ht="14.25" customHeight="1">
       <c r="A60" s="42"/>
@@ -11998,18 +12918,18 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="42"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="111"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="117"/>
       <c r="F61" s="59"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="111"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="117"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="108"/>
       <c r="C62" s="108"/>
@@ -12037,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
@@ -12050,10 +12970,10 @@
     </row>
     <row r="67" spans="1:11" ht="14.25">
       <c r="B67" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
@@ -12075,7 +12995,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
@@ -12088,7 +13008,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25">
       <c r="B70" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
@@ -12102,7 +13022,7 @@
     </row>
     <row r="71" spans="1:11" ht="14.25">
       <c r="B71" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
@@ -12116,7 +13036,7 @@
     </row>
     <row r="72" spans="1:11" ht="14.25">
       <c r="B72" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="63"/>
       <c r="D72" s="63"/>
@@ -12142,7 +13062,7 @@
     </row>
     <row r="74" spans="1:11" ht="14.25">
       <c r="B74" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="63"/>
       <c r="D74" s="63"/>
@@ -12156,7 +13076,7 @@
     </row>
     <row r="75" spans="1:11" ht="14.25">
       <c r="B75" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="63"/>
       <c r="D75" s="63"/>
@@ -12205,6 +13125,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="C6:G6"/>
@@ -12221,739 +13192,10 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I70"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="9" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="21"/>
-      <c r="B3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="41">
-        <v>44830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="40"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="23"/>
-      <c r="B6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="24"/>
-      <c r="B7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="29"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="29"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="29"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="29"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="29"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="29"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="29"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="29"/>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="29"/>
-      <c r="I19" s="30"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="29"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="29"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="29"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="29"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="29"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="29"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="29"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="29"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="29"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="29"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="29"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="29"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="29"/>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="29"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="29"/>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="29"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A38" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="115"/>
-      <c r="I38" s="114"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A39" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="111"/>
-      <c r="F39" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="111"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="111"/>
-      <c r="F40" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40" s="112"/>
-      <c r="I40" s="111"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="124" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="111"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="127"/>
-      <c r="F43" s="69">
-        <v>7</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="42"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="42"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="109"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="29"/>
-      <c r="I49" s="30"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="29"/>
-      <c r="I50" s="30"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="29"/>
-      <c r="I51" s="30"/>
-    </row>
-    <row r="52" spans="1:9" ht="14.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="63">
-        <v>1</v>
-      </c>
-      <c r="C52" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="30"/>
-    </row>
-    <row r="53" spans="1:9" ht="14.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="30"/>
-    </row>
-    <row r="54" spans="1:9" ht="14.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="63">
-        <v>2</v>
-      </c>
-      <c r="C54" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="30"/>
-    </row>
-    <row r="55" spans="1:9" ht="14.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="30"/>
-    </row>
-    <row r="56" spans="1:9" ht="14.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="1:9" ht="14.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="30"/>
-    </row>
-    <row r="58" spans="1:9" ht="14.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="30"/>
-    </row>
-    <row r="59" spans="1:9" ht="14.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="30"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="29"/>
-      <c r="I60" s="30"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="29"/>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="29"/>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="29"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="29"/>
-      <c r="I64" s="30"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="29"/>
-      <c r="I65" s="30"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="29"/>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="29"/>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="29"/>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="29"/>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="31"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12965,8 +13207,8 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -12976,7 +13218,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -12989,20 +13231,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="40" t="s">
         <v>10</v>
@@ -13011,17 +13253,17 @@
     <row r="3" spans="1:9">
       <c r="A3" s="21"/>
       <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="25" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="41">
         <v>44830</v>
@@ -13030,15 +13272,15 @@
     <row r="4" spans="1:9">
       <c r="A4" s="21"/>
       <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -13048,47 +13290,47 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="23"/>
       <c r="B6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="24"/>
       <c r="B7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -13099,7 +13341,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -13258,167 +13500,167 @@
     </row>
     <row r="42" spans="1:9" ht="23.25" customHeight="1">
       <c r="A42" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="C42" s="111"/>
+      <c r="D42" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="104" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="111"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="117"/>
       <c r="F43" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+        <v>94</v>
+      </c>
+      <c r="G43" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="111"/>
+        <v>46</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="114"/>
+      <c r="D44" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="117"/>
       <c r="F44" s="59">
         <v>20</v>
       </c>
-      <c r="G44" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+      <c r="G44" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="111"/>
+        <v>50</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="117"/>
       <c r="F45" s="61">
         <v>8</v>
       </c>
-      <c r="G45" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+      <c r="G45" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="111"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+        <v>53</v>
+      </c>
+      <c r="G46" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="111"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="108"/>
       <c r="C52" s="108"/>
@@ -13447,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -13461,7 +13703,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -13542,12 +13784,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -13560,25 +13815,12 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13605,7 +13847,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -13618,39 +13860,39 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="25" t="s">
-        <v>21</v>
-      </c>
       <c r="I2" s="40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21"/>
       <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="25" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="41">
         <v>44830</v>
@@ -13659,15 +13901,15 @@
     <row r="4" spans="1:9">
       <c r="A4" s="21"/>
       <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
@@ -13677,47 +13919,47 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="23"/>
       <c r="B6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="24"/>
       <c r="B7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -13728,7 +13970,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -13887,157 +14129,157 @@
     </row>
     <row r="42" spans="1:9" ht="23.25" customHeight="1">
       <c r="A42" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="C42" s="111"/>
+      <c r="D42" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="111"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="117"/>
+      <c r="D43" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="117"/>
       <c r="F43" s="54">
         <v>2</v>
       </c>
-      <c r="G43" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="111"/>
+      <c r="G43" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" spans="1:9" ht="12.95" customHeight="1">
       <c r="A44" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="114"/>
+      <c r="D44" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="111"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="111"/>
+        <v>53</v>
+      </c>
+      <c r="G44" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="118"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="117"/>
+      <c r="F45" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="111"/>
-      <c r="F45" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="111"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="56"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="111"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="56"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="111"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="111"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="56"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="111"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="108"/>
       <c r="C52" s="108"/>
@@ -14066,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -14080,7 +14322,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -14161,12 +14403,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B42:C42"/>
@@ -14179,25 +14434,12 @@
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14221,7 +14463,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -14234,47 +14476,47 @@
     </row>
     <row r="2" spans="1:9" ht="12.95" customHeight="1">
       <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="128" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
       <c r="F2" s="129"/>
       <c r="G2" s="129"/>
       <c r="H2" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="12.95" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3" s="129"/>
       <c r="E3" s="129"/>
       <c r="F3" s="129"/>
       <c r="G3" s="129"/>
       <c r="H3" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="12.95" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="128" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="128" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="129"/>
       <c r="E4" s="129"/>
@@ -14287,40 +14529,40 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="23"/>
       <c r="B6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="24"/>
       <c r="B7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="39"/>
@@ -14332,7 +14574,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -14490,161 +14732,161 @@
       <c r="I41" s="33"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
+      <c r="A42" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="35" t="s">
         <v>37</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>38</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="35" t="s">
         <v>40</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>41</v>
       </c>
       <c r="H43" s="37"/>
       <c r="I43" s="36"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="114"/>
       <c r="F44" s="43"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="105"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="114"/>
       <c r="F45" s="43"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="105"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="105"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="114"/>
       <c r="F46" s="43"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="105"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="114"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="105"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="114"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="114"/>
       <c r="F48" s="43"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="105"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="114"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="43"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="105"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="105"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
       <c r="F50" s="43"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="105"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="42"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="105"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="105"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="42"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="105"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="114"/>
       <c r="F52" s="43"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="105"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="114"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="42"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="105"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="114"/>
       <c r="F53" s="43"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="105"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="114"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="114"/>
+      <c r="A54" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="29"/>
@@ -14751,6 +14993,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -14767,29 +15032,6 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G51:I51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14808,6 +15050,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -14979,16 +15231,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F144B723-4FB8-4D6B-A48E-1AAAF7964110}">
   <ds:schemaRefs>
@@ -14998,6 +15240,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BD6BD65-EF1D-4BC1-8F21-A284A077EF6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15013,14 +15265,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD95721-0820-44F4-B742-1548C916F37D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面レイアウト.xlsx
+++ b/02_画面設計書・モックアップ/画面レイアウト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B4E91-5D1C-4DB7-9D65-7A2FF1CF4FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2B391A-7C6E-4E1D-925D-DEFD0479CB3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" tabRatio="784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="330">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -458,13 +458,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パスワードを変更するボタン</t>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1251,16 +1244,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ボタンを押すとそれぞれのチャットへ遷移するボタン</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>現在作られている話題が表示されていてボタンを押すとその話題に飛ぶ</t>
     <rPh sb="0" eb="2">
       <t>ゲンザイ</t>
@@ -1502,13 +1485,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>変更する</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ボタンを押すとアカウント情報が変更される</t>
     <rPh sb="4" eb="5">
       <t>オ</t>
@@ -1620,13 +1596,6 @@
   </si>
   <si>
     <t>①</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー情報</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1888,20 +1857,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>話題作成</t>
-    <rPh sb="0" eb="4">
-      <t>ワダイサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>話題</t>
-    <rPh sb="0" eb="2">
-      <t>ワダイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>リンク</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1951,19 +1906,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>話題の種類が表示されている</t>
-    <rPh sb="0" eb="2">
-      <t>ワダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2028,16 +1970,6 @@
   </si>
   <si>
     <t>リンクを押すとその話題のチャット画面へ遷移する</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>話題作成</t>
-    <rPh sb="0" eb="2">
-      <t>ワダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2300,22 +2232,6 @@
   </si>
   <si>
     <t>v1.1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>戻るひとつ前の画面へ戻る</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2607,6 +2523,78 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ひとつ前の画面へ戻る</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>話題のジャンルが表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スレッド作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタンを押すとログアウトする</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを忘れたときに押すボタン</t>
+    <rPh sb="6" eb="7">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報へ</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -30085,8 +30073,8 @@
   </sheetPr>
   <dimension ref="A1:FL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -30398,7 +30386,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="12" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -30497,7 +30485,7 @@
       <c r="S9" s="103"/>
       <c r="T9" s="104"/>
       <c r="U9" s="103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V9" s="104"/>
       <c r="W9" s="15"/>
@@ -31311,7 +31299,7 @@
       <c r="F40" s="83"/>
       <c r="G40" s="84"/>
       <c r="H40" s="79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="80"/>
       <c r="J40" s="80"/>
@@ -31325,7 +31313,7 @@
       <c r="R40" s="80"/>
       <c r="S40" s="81"/>
       <c r="T40" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U40" s="77"/>
       <c r="V40" s="78"/>
@@ -31335,7 +31323,7 @@
     <row r="41" spans="1:24" ht="15" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="76" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="78"/>
@@ -31345,7 +31333,7 @@
       <c r="F41" s="83"/>
       <c r="G41" s="84"/>
       <c r="H41" s="79" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I41" s="80"/>
       <c r="J41" s="80"/>
@@ -31359,7 +31347,7 @@
       <c r="R41" s="80"/>
       <c r="S41" s="81"/>
       <c r="T41" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U41" s="77"/>
       <c r="V41" s="78"/>
@@ -31371,10 +31359,14 @@
       <c r="B42" s="76"/>
       <c r="C42" s="77"/>
       <c r="D42" s="78"/>
-      <c r="E42" s="82"/>
+      <c r="E42" s="82">
+        <v>45084</v>
+      </c>
       <c r="F42" s="83"/>
       <c r="G42" s="84"/>
-      <c r="H42" s="79"/>
+      <c r="H42" s="79" t="s">
+        <v>329</v>
+      </c>
       <c r="I42" s="80"/>
       <c r="J42" s="80"/>
       <c r="K42" s="80"/>
@@ -31386,7 +31378,9 @@
       <c r="Q42" s="80"/>
       <c r="R42" s="80"/>
       <c r="S42" s="81"/>
-      <c r="T42" s="76"/>
+      <c r="T42" s="76" t="s">
+        <v>63</v>
+      </c>
       <c r="U42" s="77"/>
       <c r="V42" s="78"/>
       <c r="W42" s="10"/>
@@ -32022,7 +32016,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -32032,7 +32026,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -32060,7 +32054,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -32070,7 +32064,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -32081,7 +32075,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -32091,7 +32085,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -32100,7 +32094,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -32119,7 +32113,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -32306,39 +32300,39 @@
         <v>37</v>
       </c>
       <c r="B43" s="113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="114"/>
       <c r="D43" s="110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="111"/>
       <c r="F43" s="60" t="s">
         <v>46</v>
       </c>
       <c r="G43" s="110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H43" s="112"/>
       <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="110" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E44" s="111"/>
       <c r="F44" s="60" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G44" s="110" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H44" s="112"/>
       <c r="I44" s="111"/>
@@ -32560,7 +32554,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
@@ -32596,7 +32590,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
@@ -32805,7 +32799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA9CC3F-C9BB-467B-821C-7F6EDEFC6E6D}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -32835,7 +32829,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
@@ -32845,7 +32839,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.95" customHeight="1">
@@ -32873,7 +32867,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
@@ -32883,7 +32877,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -32894,7 +32888,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -32904,7 +32898,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -32913,7 +32907,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -32932,7 +32926,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -33136,126 +33130,126 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="114"/>
       <c r="F44" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="113" t="s">
         <v>132</v>
-      </c>
-      <c r="G44" s="113" t="s">
-        <v>133</v>
       </c>
       <c r="H44" s="133"/>
       <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" s="113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" s="133"/>
       <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" s="114"/>
       <c r="F46" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H46" s="133"/>
       <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="113" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E47" s="114"/>
       <c r="F47" s="42" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G47" s="113" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H47" s="133"/>
       <c r="I47" s="114"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B48" s="113" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C48" s="114"/>
       <c r="D48" s="113" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E48" s="114"/>
       <c r="F48" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" s="113" t="s">
         <v>288</v>
-      </c>
-      <c r="G48" s="113" t="s">
-        <v>297</v>
       </c>
       <c r="H48" s="133"/>
       <c r="I48" s="114"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B49" s="113" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C49" s="114"/>
       <c r="D49" s="113" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E49" s="114"/>
       <c r="F49" s="42" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G49" s="113" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H49" s="133"/>
       <c r="I49" s="114"/>
@@ -33331,7 +33325,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I57" s="30"/>
     </row>
@@ -33345,7 +33339,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I59" s="30"/>
     </row>
@@ -33359,7 +33353,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I61" s="30"/>
     </row>
@@ -33373,7 +33367,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I63" s="30"/>
     </row>
@@ -33387,7 +33381,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I65" s="30"/>
     </row>
@@ -33401,7 +33395,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="I67" s="30"/>
     </row>
@@ -33509,7 +33503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0731ECD4-D17A-42B4-A9FC-21A2F3EC35D5}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
@@ -33539,7 +33533,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
@@ -33549,7 +33543,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.95" customHeight="1">
@@ -33577,7 +33571,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
@@ -33587,7 +33581,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -33598,7 +33592,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
@@ -33608,7 +33602,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -33617,7 +33611,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -33636,7 +33630,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -33840,84 +33834,84 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="114"/>
       <c r="F44" s="42" t="s">
         <v>61</v>
       </c>
       <c r="G44" s="113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H44" s="133"/>
       <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="42" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G45" s="113" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H45" s="133"/>
       <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="113" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E46" s="114"/>
       <c r="F46" s="42" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H46" s="133"/>
       <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="113" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E47" s="114"/>
       <c r="F47" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" s="113" t="s">
         <v>288</v>
-      </c>
-      <c r="G47" s="113" t="s">
-        <v>297</v>
       </c>
       <c r="H47" s="133"/>
       <c r="I47" s="114"/>
@@ -34019,7 +34013,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -34033,7 +34027,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -34047,7 +34041,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I62" s="30"/>
     </row>
@@ -34061,7 +34055,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I64" s="30"/>
     </row>
@@ -34210,7 +34204,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
@@ -34220,7 +34214,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.95" customHeight="1">
@@ -34248,7 +34242,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
@@ -34258,7 +34252,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -34269,7 +34263,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -34279,7 +34273,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -34288,7 +34282,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -34307,7 +34301,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -34511,84 +34505,84 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="113" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E44" s="114"/>
       <c r="F44" s="42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G44" s="113" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H44" s="133"/>
       <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="113" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G45" s="113" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H45" s="133"/>
       <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="113" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E46" s="114"/>
       <c r="F46" s="42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H46" s="133"/>
       <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="113" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E47" s="114"/>
       <c r="F47" s="42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G47" s="113" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H47" s="133"/>
       <c r="I47" s="114"/>
@@ -34686,7 +34680,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="I57" s="30"/>
     </row>
@@ -34700,7 +34694,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I59" s="30"/>
     </row>
@@ -34714,7 +34708,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I61" s="30"/>
     </row>
@@ -34728,7 +34722,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I63" s="30"/>
     </row>
@@ -34855,7 +34849,7 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -34886,7 +34880,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -34896,7 +34890,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -34924,7 +34918,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -34934,7 +34928,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -34945,7 +34939,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -34955,7 +34949,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -34964,7 +34958,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -34983,7 +34977,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -35177,18 +35171,18 @@
         <v>37</v>
       </c>
       <c r="B43" s="110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="111"/>
       <c r="D43" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="111"/>
       <c r="F43" s="54" t="s">
         <v>61</v>
       </c>
       <c r="G43" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H43" s="112"/>
       <c r="I43" s="111"/>
@@ -35198,81 +35192,81 @@
         <v>41</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="111"/>
       <c r="F44" s="60" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" s="112"/>
       <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="110" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E45" s="111"/>
       <c r="F45" s="60" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G45" s="110" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H45" s="112"/>
       <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="110" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E46" s="111"/>
       <c r="F46" s="59" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G46" s="110" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H46" s="112"/>
       <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="110" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E47" s="111"/>
       <c r="F47" s="59" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G47" s="110" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="111"/>
@@ -35352,7 +35346,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -35366,7 +35360,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -35380,7 +35374,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -35394,7 +35388,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I62" s="30"/>
     </row>
@@ -35408,7 +35402,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I64" s="30"/>
     </row>
@@ -35548,7 +35542,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -35558,7 +35552,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -35586,7 +35580,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -35596,7 +35590,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -35607,7 +35601,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -35617,7 +35611,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -35626,7 +35620,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -35645,7 +35639,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -35839,18 +35833,18 @@
         <v>37</v>
       </c>
       <c r="B43" s="110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="111"/>
       <c r="D43" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="111"/>
       <c r="F43" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="110" t="s">
         <v>167</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>169</v>
       </c>
       <c r="H43" s="112"/>
       <c r="I43" s="111"/>
@@ -35860,123 +35854,123 @@
         <v>41</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="111"/>
       <c r="F44" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G44" s="110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H44" s="112"/>
       <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="111"/>
       <c r="F45" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G45" s="110" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H45" s="112"/>
       <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E46" s="111"/>
       <c r="F46" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G46" s="110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H46" s="112"/>
       <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="110" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E47" s="111"/>
       <c r="F47" s="59" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G47" s="110" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B48" s="110" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C48" s="111"/>
       <c r="D48" s="110" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E48" s="111"/>
       <c r="F48" s="54" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G48" s="110" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H48" s="112"/>
       <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B49" s="113" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C49" s="114"/>
       <c r="D49" s="110" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E49" s="111"/>
       <c r="F49" s="54" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G49" s="110" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H49" s="112"/>
       <c r="I49" s="111"/>
@@ -36034,7 +36028,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -36048,7 +36042,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -36062,7 +36056,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -36076,7 +36070,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I62" s="30"/>
     </row>
@@ -36090,7 +36084,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I64" s="30"/>
     </row>
@@ -36104,7 +36098,7 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I66" s="30"/>
     </row>
@@ -36118,7 +36112,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I68" s="30"/>
     </row>
@@ -36208,8 +36202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB098E50-2B57-4BB5-8794-E9F31FC3B726}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -36238,7 +36232,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
@@ -36248,7 +36242,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.95" customHeight="1">
@@ -36276,7 +36270,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
@@ -36286,7 +36280,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -36297,7 +36291,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
@@ -36307,7 +36301,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -36316,7 +36310,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -36335,7 +36329,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -36539,84 +36533,84 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>179</v>
+        <v>327</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="114"/>
       <c r="F44" s="42" t="s">
         <v>61</v>
       </c>
       <c r="G44" s="113" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H44" s="133"/>
       <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="113" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G45" s="113" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H45" s="133"/>
       <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="113" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E46" s="114"/>
       <c r="F46" s="42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H46" s="133"/>
       <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="42" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="113" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E47" s="114"/>
       <c r="F47" s="42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G47" s="113" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H47" s="133"/>
       <c r="I47" s="114"/>
@@ -36718,7 +36712,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -36732,7 +36726,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -36746,7 +36740,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I62" s="30"/>
     </row>
@@ -36760,7 +36754,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I64" s="30"/>
     </row>
@@ -36879,8 +36873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AECB5F6-C6F6-4AB3-A4F5-BEF49DD419AD}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -36909,7 +36903,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
@@ -36919,7 +36913,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.95" customHeight="1">
@@ -36947,7 +36941,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
@@ -36957,7 +36951,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -36968,7 +36962,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -36978,7 +36972,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -36987,7 +36981,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -37006,7 +37000,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -37210,31 +37204,31 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="113" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E44" s="114"/>
       <c r="F44" s="42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G44" s="113" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H44" s="133"/>
       <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="113" t="s">
@@ -37242,31 +37236,31 @@
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="42" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G45" s="113" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H45" s="133"/>
       <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="113" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E46" s="114"/>
       <c r="F46" s="42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H46" s="133"/>
       <c r="I46" s="114"/>
@@ -37375,7 +37369,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I57" s="30"/>
     </row>
@@ -37389,7 +37383,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I59" s="30"/>
     </row>
@@ -37403,7 +37397,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I61" s="30"/>
     </row>
@@ -37538,8 +37532,8 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -37568,7 +37562,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -37578,7 +37572,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -37606,7 +37600,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -37616,7 +37610,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -37637,7 +37631,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -37646,7 +37640,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -37665,7 +37659,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -37859,7 +37853,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="113" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C43" s="114"/>
       <c r="D43" s="110" t="s">
@@ -37867,10 +37861,10 @@
       </c>
       <c r="E43" s="111"/>
       <c r="F43" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G43" s="110" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H43" s="112"/>
       <c r="I43" s="111"/>
@@ -37880,7 +37874,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="110" t="s">
@@ -37888,10 +37882,10 @@
       </c>
       <c r="E44" s="111"/>
       <c r="F44" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G44" s="110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H44" s="112"/>
       <c r="I44" s="111"/>
@@ -37901,60 +37895,60 @@
         <v>44</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E45" s="111"/>
       <c r="F45" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G45" s="110" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H45" s="112"/>
       <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="110" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E46" s="111"/>
       <c r="F46" s="59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G46" s="110" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="H46" s="112"/>
       <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="110" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E47" s="111"/>
       <c r="F47" s="59" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G47" s="110" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="111"/>
@@ -38034,7 +38028,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -38048,7 +38042,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -38062,7 +38056,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -38076,7 +38070,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I62" s="30"/>
     </row>
@@ -38090,7 +38084,7 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I64" s="30"/>
     </row>
@@ -38199,8 +38193,8 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -38229,7 +38223,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -38239,7 +38233,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -38267,7 +38261,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -38277,7 +38271,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -38298,7 +38292,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -38307,7 +38301,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -38326,7 +38320,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -38520,18 +38514,18 @@
         <v>37</v>
       </c>
       <c r="B43" s="113" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C43" s="114"/>
       <c r="D43" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E43" s="111"/>
       <c r="F43" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="110" t="s">
         <v>155</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>156</v>
       </c>
       <c r="H43" s="112"/>
       <c r="I43" s="111"/>
@@ -38541,18 +38535,18 @@
         <v>41</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E44" s="111"/>
       <c r="F44" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G44" s="110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H44" s="112"/>
       <c r="I44" s="111"/>
@@ -38562,7 +38556,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="110" t="s">
@@ -38570,10 +38564,10 @@
       </c>
       <c r="E45" s="111"/>
       <c r="F45" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G45" s="110" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="H45" s="112"/>
       <c r="I45" s="111"/>
@@ -38583,7 +38577,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="110" t="s">
@@ -38594,70 +38588,70 @@
         <v>61</v>
       </c>
       <c r="G46" s="110" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H46" s="112"/>
       <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C47" s="111"/>
       <c r="D47" s="110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E47" s="111"/>
       <c r="F47" s="73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G47" s="110" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B48" s="121" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C48" s="123"/>
       <c r="D48" s="121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="123"/>
       <c r="F48" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G48" s="110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H48" s="112"/>
       <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B49" s="113" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C49" s="114"/>
       <c r="D49" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" s="111"/>
       <c r="F49" s="54" t="s">
         <v>61</v>
       </c>
       <c r="G49" s="110" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H49" s="112"/>
       <c r="I49" s="111"/>
@@ -38715,7 +38709,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -38729,7 +38723,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -38743,7 +38737,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -38757,7 +38751,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I62" s="30"/>
     </row>
@@ -38771,7 +38765,7 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I64" s="30"/>
     </row>
@@ -38785,7 +38779,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I66" s="30"/>
     </row>
@@ -38799,14 +38793,14 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="29"/>
       <c r="D69" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I69" s="30"/>
     </row>
@@ -38895,7 +38889,7 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -38925,7 +38919,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -38935,7 +38929,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -38963,7 +38957,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -38973,7 +38967,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -38984,7 +38978,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -38994,7 +38988,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -39003,7 +38997,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -39022,7 +39016,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -39213,10 +39207,10 @@
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="42" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C43" s="126"/>
       <c r="D43" s="124" t="s">
@@ -39224,10 +39218,10 @@
       </c>
       <c r="E43" s="126"/>
       <c r="F43" s="40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G43" s="124" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H43" s="125"/>
       <c r="I43" s="126"/>
@@ -39237,7 +39231,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="127" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C44" s="128"/>
       <c r="D44" s="129" t="s">
@@ -39248,7 +39242,7 @@
         <v>61</v>
       </c>
       <c r="G44" s="129" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H44" s="131"/>
       <c r="I44" s="130"/>
@@ -39258,7 +39252,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="127" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C45" s="128"/>
       <c r="D45" s="129" t="s">
@@ -39269,17 +39263,17 @@
         <v>61</v>
       </c>
       <c r="G45" s="129" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H45" s="131"/>
       <c r="I45" s="130"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="127" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C46" s="128"/>
       <c r="D46" s="129" t="s">
@@ -39290,91 +39284,91 @@
         <v>61</v>
       </c>
       <c r="G46" s="129" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H46" s="131"/>
       <c r="I46" s="130"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="130"/>
       <c r="F47" s="59" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G47" s="129" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H47" s="131"/>
       <c r="I47" s="130"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B48" s="127" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C48" s="128"/>
       <c r="D48" s="129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="130"/>
       <c r="F48" s="59" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G48" s="129" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H48" s="131"/>
       <c r="I48" s="130"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B49" s="113" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C49" s="114"/>
       <c r="D49" s="110" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E49" s="111"/>
       <c r="F49" s="54" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G49" s="110" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H49" s="112"/>
       <c r="I49" s="111"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="42" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B50" s="113" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C50" s="114"/>
       <c r="D50" s="110" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E50" s="111"/>
       <c r="F50" s="54" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G50" s="110" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H50" s="112"/>
       <c r="I50" s="111"/>
@@ -39413,14 +39407,14 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9" ht="26.1" customHeight="1">
       <c r="A55" s="29"/>
       <c r="D55" s="132" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E55" s="132"/>
       <c r="F55" s="132"/>
@@ -39438,7 +39432,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I57" s="30"/>
     </row>
@@ -39452,7 +39446,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I59" s="30"/>
     </row>
@@ -39466,7 +39460,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I61" s="30"/>
     </row>
@@ -39480,7 +39474,7 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I63" s="30"/>
     </row>
@@ -39494,7 +39488,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I65" s="30"/>
     </row>
@@ -39508,7 +39502,7 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I67" s="30"/>
     </row>
@@ -39522,7 +39516,7 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I69" s="30"/>
     </row>
@@ -39616,8 +39610,8 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A30" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -39657,7 +39651,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -39685,7 +39679,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -39695,7 +39689,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -39706,7 +39700,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -39716,7 +39710,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -39744,7 +39738,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -39960,7 +39954,7 @@
       </c>
       <c r="E44" s="114"/>
       <c r="F44" s="53" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G44" s="113" t="s">
         <v>40</v>
@@ -39981,7 +39975,7 @@
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="53" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G45" s="113" t="s">
         <v>43</v>
@@ -39991,10 +39985,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="113" t="s">
@@ -40012,7 +40006,7 @@
     </row>
     <row r="47" spans="1:9" ht="27" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="113" t="s">
         <v>58</v>
@@ -40026,14 +40020,14 @@
         <v>46</v>
       </c>
       <c r="G47" s="110" t="s">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="113" t="s">
         <v>59</v>
@@ -40047,17 +40041,17 @@
         <v>61</v>
       </c>
       <c r="G48" s="113" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="133"/>
       <c r="I48" s="114"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="121" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C49" s="123"/>
       <c r="D49" s="121" t="s">
@@ -40066,26 +40060,26 @@
       <c r="E49" s="123"/>
       <c r="F49" s="18"/>
       <c r="G49" s="121" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H49" s="122"/>
       <c r="I49" s="123"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="54" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B50" s="113" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C50" s="114"/>
       <c r="D50" s="113" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E50" s="114"/>
       <c r="F50" s="53"/>
       <c r="G50" s="113" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="H50" s="133"/>
       <c r="I50" s="114"/>
@@ -40184,7 +40178,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
@@ -40211,7 +40205,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
@@ -40237,7 +40231,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
@@ -40256,7 +40250,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="63" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I65" s="30"/>
     </row>
@@ -40270,7 +40264,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I67" s="30"/>
     </row>
@@ -40344,12 +40338,12 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -40392,7 +40386,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
@@ -40402,7 +40396,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.95" customHeight="1">
@@ -40430,7 +40424,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
@@ -40440,7 +40434,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -40451,7 +40445,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -40461,7 +40455,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -40470,7 +40464,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -40489,7 +40483,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -40693,42 +40687,42 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="114"/>
       <c r="F44" s="42" t="s">
         <v>61</v>
       </c>
       <c r="G44" s="113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H44" s="133"/>
       <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="113" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="42" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G45" s="113" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H45" s="133"/>
       <c r="I45" s="114"/>
@@ -40852,7 +40846,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -40866,7 +40860,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -41035,7 +41029,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -41045,7 +41039,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -41073,7 +41067,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -41083,7 +41077,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -41094,7 +41088,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -41104,7 +41098,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -41113,7 +41107,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -41132,7 +41126,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -41310,18 +41304,18 @@
         <v>37</v>
       </c>
       <c r="B39" s="113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="114"/>
       <c r="D39" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="111"/>
       <c r="F39" s="59" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G39" s="110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" s="112"/>
       <c r="I39" s="111"/>
@@ -41331,18 +41325,18 @@
         <v>41</v>
       </c>
       <c r="B40" s="113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="114"/>
       <c r="D40" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="111"/>
       <c r="F40" s="59" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G40" s="110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H40" s="112"/>
       <c r="I40" s="111"/>
@@ -41352,18 +41346,18 @@
         <v>44</v>
       </c>
       <c r="B41" s="113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="114"/>
       <c r="D41" s="137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="138"/>
       <c r="F41" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G41" s="110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H41" s="112"/>
       <c r="I41" s="111"/>
@@ -41373,60 +41367,60 @@
         <v>48</v>
       </c>
       <c r="B42" s="113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="133"/>
       <c r="D42" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="66"/>
       <c r="F42" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" s="112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H42" s="112"/>
       <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="42" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B43" s="113" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C43" s="114"/>
       <c r="D43" s="139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="140"/>
       <c r="F43" s="69" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G43" s="110" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H43" s="112"/>
       <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="110" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E44" s="111"/>
       <c r="F44" s="59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G44" s="110" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H44" s="112"/>
       <c r="I44" s="111"/>
@@ -41495,7 +41489,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" s="63"/>
       <c r="E52" s="63"/>
@@ -41523,7 +41517,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
@@ -41551,7 +41545,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="63"/>
       <c r="E56" s="63"/>
@@ -41579,7 +41573,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
@@ -41607,7 +41601,7 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -41621,7 +41615,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I62" s="30"/>
     </row>
@@ -41744,7 +41738,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
@@ -41754,7 +41748,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.95" customHeight="1">
@@ -41782,7 +41776,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
@@ -41792,7 +41786,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -41803,7 +41797,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
@@ -41813,7 +41807,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -41822,7 +41816,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -41841,7 +41835,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -42045,63 +42039,63 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="114"/>
       <c r="F44" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="113" t="s">
         <v>111</v>
-      </c>
-      <c r="G44" s="113" t="s">
-        <v>112</v>
       </c>
       <c r="H44" s="133"/>
       <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="42" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="42" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G45" s="113" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H45" s="133"/>
       <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="42" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="113" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E46" s="114"/>
       <c r="F46" s="42" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H46" s="133"/>
       <c r="I46" s="114"/>
@@ -42214,7 +42208,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -42228,7 +42222,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -42242,7 +42236,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I62" s="30"/>
     </row>
@@ -42372,7 +42366,7 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -42403,7 +42397,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
@@ -42413,7 +42407,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -42441,7 +42435,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
@@ -42451,7 +42445,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -42462,7 +42456,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D5" s="122"/>
       <c r="E5" s="122"/>
@@ -42472,7 +42466,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -42481,7 +42475,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -42500,7 +42494,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -42694,18 +42688,18 @@
         <v>37</v>
       </c>
       <c r="B43" s="110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="111"/>
       <c r="D43" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="111"/>
       <c r="F43" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" s="110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H43" s="112"/>
       <c r="I43" s="111"/>
@@ -42715,81 +42709,81 @@
         <v>41</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="111"/>
       <c r="F44" s="60" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44" s="112"/>
       <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="111"/>
       <c r="F45" s="60" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G45" s="110" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H45" s="112"/>
       <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="110" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E46" s="111"/>
       <c r="F46" s="59" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G46" s="110" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H46" s="112"/>
       <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="110" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E47" s="111"/>
       <c r="F47" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" s="110" t="s">
         <v>288</v>
-      </c>
-      <c r="G47" s="110" t="s">
-        <v>297</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="111"/>
@@ -42869,7 +42863,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I56" s="30"/>
     </row>
@@ -42883,7 +42877,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I58" s="30"/>
     </row>
@@ -42897,7 +42891,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="I60" s="30"/>
     </row>
@@ -42911,7 +42905,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I62" s="30"/>
     </row>
@@ -42925,7 +42919,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I64" s="30"/>
     </row>
